--- a/SonarLysaFX/src/resourcesTest/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/src/resourcesTest/Suivi_Quality_GateTest.xlsx
@@ -14,7 +14,7 @@
     <sheet name="SUIVI Qualité" sheetId="71" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anomalies closes'!$A$1:$T$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anomalies closes'!$A$1:$V$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SUIVI Qualité'!$H$1:$H$80</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="608">
   <si>
     <t>Edition</t>
   </si>
@@ -1837,6 +1837,15 @@
   </si>
   <si>
     <t>VERGNE Clement</t>
+  </si>
+  <si>
+    <t>Date résolution</t>
+  </si>
+  <si>
+    <t>Date mise à jour état</t>
+  </si>
+  <si>
+    <t>A abandonner</t>
   </si>
 </sst>
 </file>
@@ -5368,10 +5377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,18 +5395,20 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -5428,41 +5439,47 @@
       <c r="J1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="229" t="s">
+        <v>606</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="229" t="s">
+      <c r="N1" s="229" t="s">
         <v>596</v>
       </c>
-      <c r="N1" s="229" t="s">
+      <c r="O1" s="229" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="229" t="s">
+      <c r="P1" s="229" t="s">
         <v>571</v>
       </c>
-      <c r="P1" s="229" t="s">
+      <c r="Q1" s="229" t="s">
         <v>573</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="229" t="s">
+        <v>605</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="229" t="s">
+      <c r="U1" s="229" t="s">
         <v>476</v>
       </c>
-      <c r="T1" s="229" t="s">
+      <c r="V1" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="U1" s="229" t="s">
+      <c r="W1" s="229" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>183</v>
       </c>
@@ -5491,30 +5508,32 @@
       <c r="J2" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="498"/>
+      <c r="L2" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="L2" s="64">
+      <c r="M2" s="64">
         <v>248077</v>
       </c>
-      <c r="M2" s="498"/>
       <c r="N2" s="498"/>
       <c r="O2" s="498"/>
       <c r="P2" s="498"/>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="498"/>
+      <c r="R2" s="498"/>
+      <c r="S2" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="T2" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="S2" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="T2" s="64" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U2" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" s="64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>183</v>
       </c>
@@ -5543,28 +5562,30 @@
       <c r="J3" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68">
+      <c r="K3" s="499"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68">
         <v>248089</v>
       </c>
-      <c r="M3" s="499"/>
       <c r="N3" s="499"/>
       <c r="O3" s="499"/>
       <c r="P3" s="499"/>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="499"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="T3" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="T3" s="68" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U3" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="V3" s="68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>183</v>
       </c>
@@ -5593,30 +5614,32 @@
       <c r="J4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="500"/>
+      <c r="L4" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="66">
+      <c r="M4" s="66">
         <v>307394</v>
       </c>
-      <c r="M4" s="500"/>
       <c r="N4" s="500"/>
       <c r="O4" s="500"/>
       <c r="P4" s="500"/>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="500"/>
+      <c r="R4" s="500"/>
+      <c r="S4" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="R4" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="S4" s="66" t="s">
-        <v>493</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T4" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="U4" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>183</v>
       </c>
@@ -5645,28 +5668,30 @@
       <c r="J5" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18">
+      <c r="K5" s="501"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
         <v>268009</v>
       </c>
-      <c r="M5" s="501"/>
       <c r="N5" s="501"/>
       <c r="O5" s="501"/>
       <c r="P5" s="501"/>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="501"/>
+      <c r="R5" s="501"/>
+      <c r="S5" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>139</v>
       </c>
@@ -5695,28 +5720,30 @@
       <c r="J6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14">
+      <c r="K6" s="502"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
         <v>298836</v>
       </c>
-      <c r="M6" s="502"/>
       <c r="N6" s="502"/>
       <c r="O6" s="502"/>
       <c r="P6" s="502"/>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="502"/>
+      <c r="R6" s="502"/>
+      <c r="S6" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="T6" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>183</v>
       </c>
@@ -5745,30 +5772,32 @@
       <c r="J7" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="503"/>
+      <c r="L7" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="L7" s="70">
+      <c r="M7" s="70">
         <v>294406</v>
       </c>
-      <c r="M7" s="503"/>
       <c r="N7" s="503"/>
       <c r="O7" s="503"/>
       <c r="P7" s="503"/>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="503"/>
+      <c r="R7" s="503"/>
+      <c r="S7" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="T7" s="62" t="s">
         <v>549</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="U7" s="70" t="s">
         <v>516</v>
       </c>
-      <c r="T7" s="70" t="s">
+      <c r="V7" s="70" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>236</v>
       </c>
@@ -5797,28 +5826,30 @@
       <c r="J8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20">
+      <c r="K8" s="504"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
         <v>292795</v>
       </c>
-      <c r="M8" s="504"/>
       <c r="N8" s="504"/>
       <c r="O8" s="504"/>
       <c r="P8" s="504"/>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="504"/>
+      <c r="R8" s="504"/>
+      <c r="S8" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="T8" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="S8" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U8" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>139</v>
       </c>
@@ -5847,28 +5878,30 @@
       <c r="J9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15">
+      <c r="K9" s="505"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
         <v>294337</v>
       </c>
-      <c r="M9" s="505"/>
       <c r="N9" s="505"/>
       <c r="O9" s="505"/>
       <c r="P9" s="505"/>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="505"/>
+      <c r="R9" s="505"/>
+      <c r="S9" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="T9" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="S9" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>159</v>
       </c>
@@ -5897,28 +5930,30 @@
       <c r="J10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72">
+      <c r="K10" s="506"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72">
         <v>285909</v>
       </c>
-      <c r="M10" s="506"/>
       <c r="N10" s="506"/>
       <c r="O10" s="506"/>
       <c r="P10" s="506"/>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="506"/>
+      <c r="R10" s="506"/>
+      <c r="S10" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="R10" s="60" t="s">
+      <c r="T10" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="S10" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="T10" s="72" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>183</v>
       </c>
@@ -5947,30 +5982,32 @@
       <c r="J11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="507"/>
+      <c r="L11" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="L11" s="23">
+      <c r="M11" s="23">
         <v>302782</v>
       </c>
-      <c r="M11" s="507"/>
       <c r="N11" s="507"/>
       <c r="O11" s="507"/>
       <c r="P11" s="507"/>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="507"/>
+      <c r="R11" s="507"/>
+      <c r="S11" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T11" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>493</v>
       </c>
@@ -5999,30 +6036,32 @@
       <c r="J12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="508"/>
+      <c r="L12" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="25">
         <v>310737</v>
       </c>
-      <c r="M12" s="508"/>
       <c r="N12" s="508"/>
       <c r="O12" s="508"/>
       <c r="P12" s="508"/>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="508"/>
+      <c r="R12" s="508"/>
+      <c r="S12" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="T12" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="S12" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="T12" s="25" t="s">
+      <c r="U12" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="V12" s="25" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>159</v>
       </c>
@@ -6051,28 +6090,30 @@
       <c r="J13" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71">
+      <c r="K13" s="509"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71">
         <v>292625</v>
       </c>
-      <c r="M13" s="509"/>
       <c r="N13" s="509"/>
       <c r="O13" s="509"/>
       <c r="P13" s="509"/>
-      <c r="Q13" s="63" t="s">
+      <c r="Q13" s="509"/>
+      <c r="R13" s="509"/>
+      <c r="S13" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="R13" s="63" t="s">
+      <c r="T13" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="S13" s="71" t="s">
-        <v>493</v>
-      </c>
-      <c r="T13" s="71" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="71" t="s">
+        <v>493</v>
+      </c>
+      <c r="V13" s="71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>183</v>
       </c>
@@ -6101,28 +6142,30 @@
       <c r="J14" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40">
+      <c r="K14" s="510"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40">
         <v>294604</v>
       </c>
-      <c r="M14" s="510"/>
       <c r="N14" s="510"/>
       <c r="O14" s="510"/>
       <c r="P14" s="510"/>
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="510"/>
+      <c r="R14" s="510"/>
+      <c r="S14" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="T14" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="S14" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="T14" s="40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="V14" s="40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>139</v>
       </c>
@@ -6151,30 +6194,32 @@
       <c r="J15" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="511"/>
+      <c r="L15" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="L15" s="44">
+      <c r="M15" s="44">
         <v>302777</v>
       </c>
-      <c r="M15" s="511"/>
       <c r="N15" s="511"/>
       <c r="O15" s="511"/>
       <c r="P15" s="511"/>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="511"/>
+      <c r="R15" s="511"/>
+      <c r="S15" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="T15" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="S15" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="T15" s="44" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="U15" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>183</v>
       </c>
@@ -6203,30 +6248,32 @@
       <c r="J16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="512"/>
+      <c r="L16" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="34">
+      <c r="M16" s="34">
         <v>294412</v>
       </c>
-      <c r="M16" s="512"/>
       <c r="N16" s="512"/>
       <c r="O16" s="512"/>
       <c r="P16" s="512"/>
-      <c r="Q16" s="29" t="s">
+      <c r="Q16" s="512"/>
+      <c r="R16" s="512"/>
+      <c r="S16" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="T16" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="S16" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U16" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>183</v>
       </c>
@@ -6255,28 +6302,30 @@
       <c r="J17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32">
+      <c r="K17" s="513"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32">
         <v>294352</v>
       </c>
-      <c r="M17" s="513"/>
       <c r="N17" s="513"/>
       <c r="O17" s="513"/>
       <c r="P17" s="513"/>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="513"/>
+      <c r="R17" s="513"/>
+      <c r="S17" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="T17" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="S17" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>183</v>
       </c>
@@ -6305,28 +6354,30 @@
       <c r="J18" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69">
+      <c r="K18" s="514"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69">
         <v>294356</v>
       </c>
-      <c r="M18" s="514"/>
       <c r="N18" s="514"/>
       <c r="O18" s="514"/>
       <c r="P18" s="514"/>
-      <c r="Q18" s="61" t="s">
+      <c r="Q18" s="514"/>
+      <c r="R18" s="514"/>
+      <c r="S18" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="T18" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="S18" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="T18" s="69" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="V18" s="69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>183</v>
       </c>
@@ -6355,28 +6406,30 @@
       <c r="J19" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36">
+      <c r="K19" s="515"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36">
         <v>294360</v>
       </c>
-      <c r="M19" s="515"/>
       <c r="N19" s="515"/>
       <c r="O19" s="515"/>
       <c r="P19" s="515"/>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="515"/>
+      <c r="R19" s="515"/>
+      <c r="S19" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="T19" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="T19" s="36" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>174</v>
       </c>
@@ -6405,30 +6458,32 @@
       <c r="J20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="516"/>
+      <c r="L20" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="L20" s="28">
+      <c r="M20" s="28">
         <v>294418</v>
       </c>
-      <c r="M20" s="516"/>
       <c r="N20" s="516"/>
       <c r="O20" s="516"/>
       <c r="P20" s="516"/>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="516"/>
+      <c r="R20" s="516"/>
+      <c r="S20" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="T20" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="S20" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="T20" s="28" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U20" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>183</v>
       </c>
@@ -6457,28 +6512,30 @@
       <c r="J21" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73">
+      <c r="K21" s="517"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73">
         <v>301771</v>
       </c>
-      <c r="M21" s="517"/>
       <c r="N21" s="517"/>
       <c r="O21" s="517"/>
       <c r="P21" s="517"/>
-      <c r="Q21" s="61" t="s">
+      <c r="Q21" s="517"/>
+      <c r="R21" s="517"/>
+      <c r="S21" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="R21" s="61" t="s">
-        <v>493</v>
-      </c>
-      <c r="S21" s="73" t="s">
-        <v>493</v>
-      </c>
-      <c r="T21" s="73" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T21" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="U21" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="V21" s="73" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>493</v>
       </c>
@@ -6507,28 +6564,30 @@
       <c r="J22" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="518"/>
+      <c r="L22" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="518"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="518"/>
       <c r="O22" s="518"/>
       <c r="P22" s="518"/>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="518"/>
+      <c r="R22" s="518"/>
+      <c r="S22" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="T22" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="S22" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="V22" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>183</v>
       </c>
@@ -6557,28 +6616,30 @@
       <c r="J23" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38">
+      <c r="K23" s="519"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38">
         <v>294422</v>
       </c>
-      <c r="M23" s="519"/>
       <c r="N23" s="519"/>
       <c r="O23" s="519"/>
       <c r="P23" s="519"/>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="519"/>
+      <c r="R23" s="519"/>
+      <c r="S23" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="T23" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="S23" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="T23" s="38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>174</v>
       </c>
@@ -6607,30 +6668,32 @@
       <c r="J24" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="520"/>
+      <c r="L24" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="L24" s="30">
+      <c r="M24" s="30">
         <v>294484</v>
       </c>
-      <c r="M24" s="520"/>
       <c r="N24" s="520"/>
       <c r="O24" s="520"/>
       <c r="P24" s="520"/>
-      <c r="Q24" s="41" t="s">
+      <c r="Q24" s="520"/>
+      <c r="R24" s="520"/>
+      <c r="S24" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="T24" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="S24" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="V24" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>493</v>
       </c>
@@ -6659,28 +6722,30 @@
       <c r="J25" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="521"/>
+      <c r="L25" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="521"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="521"/>
       <c r="O25" s="521"/>
       <c r="P25" s="521"/>
-      <c r="Q25" s="43" t="s">
+      <c r="Q25" s="521"/>
+      <c r="R25" s="521"/>
+      <c r="S25" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="T25" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="S25" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="T25" s="53" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="V25" s="53" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>183</v>
       </c>
@@ -6709,30 +6774,32 @@
       <c r="J26" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="522"/>
+      <c r="L26" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="L26" s="47">
+      <c r="M26" s="47">
         <v>307494</v>
       </c>
-      <c r="M26" s="522"/>
       <c r="N26" s="522"/>
       <c r="O26" s="522"/>
       <c r="P26" s="522"/>
-      <c r="Q26" s="45" t="s">
+      <c r="Q26" s="522"/>
+      <c r="R26" s="522"/>
+      <c r="S26" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="R26" s="45" t="s">
-        <v>493</v>
-      </c>
-      <c r="S26" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="T26" s="47" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="U26" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="V26" s="47" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>174</v>
       </c>
@@ -6761,30 +6828,32 @@
       <c r="J27" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="523"/>
+      <c r="L27" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="L27" s="48">
+      <c r="M27" s="48">
         <v>307534</v>
       </c>
-      <c r="M27" s="523"/>
       <c r="N27" s="523"/>
       <c r="O27" s="523"/>
       <c r="P27" s="523"/>
-      <c r="Q27" s="46" t="s">
+      <c r="Q27" s="523"/>
+      <c r="R27" s="523"/>
+      <c r="S27" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="R27" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="S27" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="U27" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="V27" s="48" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>493</v>
       </c>
@@ -6813,30 +6882,32 @@
       <c r="J28" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="524"/>
+      <c r="L28" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="L28" s="67">
+      <c r="M28" s="67">
         <v>302841</v>
       </c>
-      <c r="M28" s="524"/>
       <c r="N28" s="524"/>
       <c r="O28" s="524"/>
       <c r="P28" s="524"/>
-      <c r="Q28" s="61" t="s">
+      <c r="Q28" s="524"/>
+      <c r="R28" s="524"/>
+      <c r="S28" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="R28" s="61" t="s">
-        <v>493</v>
-      </c>
-      <c r="S28" s="67" t="s">
-        <v>493</v>
-      </c>
-      <c r="T28" s="67" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="T28" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="U28" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="V28" s="67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>183</v>
       </c>
@@ -6865,28 +6936,30 @@
       <c r="J29" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65">
+      <c r="K29" s="525"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65">
         <v>301702</v>
       </c>
-      <c r="M29" s="525"/>
       <c r="N29" s="525"/>
       <c r="O29" s="525"/>
       <c r="P29" s="525"/>
-      <c r="Q29" s="61" t="s">
+      <c r="Q29" s="525"/>
+      <c r="R29" s="525"/>
+      <c r="S29" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="R29" s="61" t="s">
-        <v>493</v>
-      </c>
-      <c r="S29" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="T29" s="65" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T29" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="U29" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="V29" s="65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>493</v>
       </c>
@@ -6915,28 +6988,30 @@
       <c r="J30" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="526"/>
+      <c r="L30" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="L30" s="55"/>
-      <c r="M30" s="526"/>
+      <c r="M30" s="55"/>
       <c r="N30" s="526"/>
       <c r="O30" s="526"/>
       <c r="P30" s="526"/>
-      <c r="Q30" s="50" t="s">
+      <c r="Q30" s="526"/>
+      <c r="R30" s="526"/>
+      <c r="S30" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="R30" s="50" t="s">
+      <c r="T30" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="T30" s="55" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="V30" s="55" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>174</v>
       </c>
@@ -6965,30 +7040,32 @@
       <c r="J31" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="K31" s="527"/>
+      <c r="L31" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="L31" s="49">
+      <c r="M31" s="49">
         <v>307551</v>
       </c>
-      <c r="M31" s="527"/>
       <c r="N31" s="527"/>
       <c r="O31" s="527"/>
       <c r="P31" s="527"/>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="527"/>
+      <c r="R31" s="527"/>
+      <c r="S31" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="R31" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="S31" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T31" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="U31" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="V31" s="49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>493</v>
       </c>
@@ -7017,28 +7094,30 @@
       <c r="J32" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="528"/>
+      <c r="L32" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="M32" s="528"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="528"/>
       <c r="O32" s="528"/>
       <c r="P32" s="528"/>
-      <c r="Q32" s="54" t="s">
+      <c r="Q32" s="528"/>
+      <c r="R32" s="528"/>
+      <c r="S32" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="R32" s="54" t="s">
+      <c r="T32" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="S32" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="T32" s="51" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="V32" s="51" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>493</v>
       </c>
@@ -7067,28 +7146,30 @@
       <c r="J33" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="529"/>
+      <c r="L33" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="529"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="529"/>
       <c r="O33" s="529"/>
       <c r="P33" s="529"/>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="529"/>
+      <c r="R33" s="529"/>
+      <c r="S33" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="R33" s="56" t="s">
+      <c r="T33" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="S33" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="T33" s="59" t="s">
+      <c r="U33" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="V33" s="59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
         <v>493</v>
       </c>
@@ -7117,28 +7198,30 @@
       <c r="J34" s="57" t="s">
         <v>483</v>
       </c>
-      <c r="K34" s="57" t="s">
+      <c r="K34" s="530"/>
+      <c r="L34" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="530"/>
+      <c r="M34" s="57"/>
       <c r="N34" s="530"/>
       <c r="O34" s="530"/>
       <c r="P34" s="530"/>
-      <c r="Q34" s="58" t="s">
+      <c r="Q34" s="530"/>
+      <c r="R34" s="530"/>
+      <c r="S34" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="R34" s="58" t="s">
-        <v>493</v>
-      </c>
-      <c r="S34" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="T34" s="57" t="s">
+      <c r="T34" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="U34" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="V34" s="57" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>493</v>
       </c>
@@ -7167,28 +7250,30 @@
       <c r="J35" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="K35" s="75" t="s">
+      <c r="K35" s="531"/>
+      <c r="L35" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="531"/>
+      <c r="M35" s="75"/>
       <c r="N35" s="531"/>
       <c r="O35" s="531"/>
       <c r="P35" s="531"/>
-      <c r="Q35" s="74" t="s">
+      <c r="Q35" s="531"/>
+      <c r="R35" s="531"/>
+      <c r="S35" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="R35" s="74" t="s">
+      <c r="T35" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="S35" s="75" t="s">
-        <v>493</v>
-      </c>
-      <c r="T35" s="75" t="s">
+      <c r="U35" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="V35" s="75" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>493</v>
       </c>
@@ -7217,28 +7302,30 @@
       <c r="J36" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="K36" s="77" t="s">
+      <c r="K36" s="532"/>
+      <c r="L36" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="L36" s="77"/>
-      <c r="M36" s="532"/>
+      <c r="M36" s="77"/>
       <c r="N36" s="532"/>
       <c r="O36" s="532"/>
       <c r="P36" s="532"/>
-      <c r="Q36" s="76" t="s">
+      <c r="Q36" s="532"/>
+      <c r="R36" s="532"/>
+      <c r="S36" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="R36" s="76" t="s">
+      <c r="T36" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="S36" s="77" t="s">
-        <v>493</v>
-      </c>
-      <c r="T36" s="77" t="s">
+      <c r="U36" s="77" t="s">
+        <v>493</v>
+      </c>
+      <c r="V36" s="77" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>183</v>
       </c>
@@ -7267,28 +7354,30 @@
       <c r="J37" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="533"/>
+      <c r="L37" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="L37" s="79"/>
-      <c r="M37" s="533"/>
+      <c r="M37" s="79"/>
       <c r="N37" s="533"/>
       <c r="O37" s="533"/>
       <c r="P37" s="533"/>
-      <c r="Q37" s="78" t="s">
+      <c r="Q37" s="533"/>
+      <c r="R37" s="533"/>
+      <c r="S37" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="R37" s="78" t="s">
+      <c r="T37" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="S37" s="79" t="s">
-        <v>493</v>
-      </c>
-      <c r="T37" s="79" t="s">
+      <c r="U37" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="V37" s="79" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
         <v>159</v>
       </c>
@@ -7317,30 +7406,32 @@
       <c r="J38" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="534"/>
+      <c r="L38" s="81" t="s">
         <v>393</v>
       </c>
-      <c r="L38" s="81">
+      <c r="M38" s="81">
         <v>301775</v>
       </c>
-      <c r="M38" s="534"/>
       <c r="N38" s="534"/>
       <c r="O38" s="534"/>
       <c r="P38" s="534"/>
-      <c r="Q38" s="80" t="s">
+      <c r="Q38" s="534"/>
+      <c r="R38" s="534"/>
+      <c r="S38" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="R38" s="80" t="s">
+      <c r="T38" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="S38" s="81" t="s">
-        <v>493</v>
-      </c>
-      <c r="T38" s="81" t="s">
+      <c r="U38" s="81" t="s">
+        <v>493</v>
+      </c>
+      <c r="V38" s="81" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>183</v>
       </c>
@@ -7369,30 +7460,32 @@
       <c r="J39" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="535"/>
+      <c r="L39" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="L39" s="83">
+      <c r="M39" s="83">
         <v>307554</v>
       </c>
-      <c r="M39" s="535"/>
       <c r="N39" s="535"/>
       <c r="O39" s="535"/>
       <c r="P39" s="535"/>
-      <c r="Q39" s="82" t="s">
+      <c r="Q39" s="535"/>
+      <c r="R39" s="535"/>
+      <c r="S39" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="R39" s="82" t="s">
+      <c r="T39" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="S39" s="83" t="s">
-        <v>493</v>
-      </c>
-      <c r="T39" s="83" t="s">
+      <c r="U39" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="V39" s="83" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
         <v>183</v>
       </c>
@@ -7421,27 +7514,29 @@
       <c r="J40" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="K40" s="85" t="s">
+      <c r="K40" s="536"/>
+      <c r="L40" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="L40" s="85">
+      <c r="M40" s="85">
         <v>309174</v>
       </c>
-      <c r="M40" s="536"/>
       <c r="N40" s="536"/>
       <c r="O40" s="536"/>
       <c r="P40" s="536"/>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="536"/>
+      <c r="R40" s="536"/>
+      <c r="S40" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="R40" s="84" t="s">
+      <c r="T40" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="T40" s="85" t="s">
+      <c r="V40" s="85" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="s">
         <v>139</v>
       </c>
@@ -7470,30 +7565,32 @@
       <c r="J41" s="87" t="s">
         <v>534</v>
       </c>
-      <c r="K41" s="87" t="s">
+      <c r="K41" s="537"/>
+      <c r="L41" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="L41" s="87">
+      <c r="M41" s="87">
         <v>310986</v>
       </c>
-      <c r="M41" s="537"/>
       <c r="N41" s="537"/>
       <c r="O41" s="537"/>
       <c r="P41" s="537"/>
-      <c r="Q41" s="86" t="s">
+      <c r="Q41" s="537"/>
+      <c r="R41" s="537"/>
+      <c r="S41" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="R41" s="87" t="s">
-        <v>493</v>
-      </c>
-      <c r="S41" s="86" t="s">
-        <v>493</v>
-      </c>
       <c r="T41" s="87" t="s">
+        <v>493</v>
+      </c>
+      <c r="U41" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="V41" s="87" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="233" t="s">
         <v>139</v>
       </c>
@@ -7522,28 +7619,30 @@
       <c r="J42" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="234" t="s">
+      <c r="K42" s="234"/>
+      <c r="L42" s="234" t="s">
         <v>393</v>
       </c>
-      <c r="L42" s="234">
+      <c r="M42" s="234">
         <v>294577</v>
       </c>
-      <c r="M42" s="234"/>
       <c r="N42" s="234"/>
       <c r="O42" s="234"/>
       <c r="P42" s="234"/>
-      <c r="Q42" s="470" t="s">
+      <c r="Q42" s="234"/>
+      <c r="R42" s="234"/>
+      <c r="S42" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R42" s="470" t="s">
+      <c r="T42" s="470" t="s">
         <v>574</v>
       </c>
-      <c r="S42" s="235"/>
-      <c r="T42" s="234" t="s">
+      <c r="U42" s="235"/>
+      <c r="V42" s="234" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="272" t="s">
         <v>183</v>
       </c>
@@ -7573,25 +7672,27 @@
         <v>71</v>
       </c>
       <c r="K43" s="273"/>
-      <c r="L43" s="273">
+      <c r="L43" s="273"/>
+      <c r="M43" s="273">
         <v>294266</v>
       </c>
-      <c r="M43" s="273"/>
       <c r="N43" s="273"/>
       <c r="O43" s="273"/>
       <c r="P43" s="273"/>
-      <c r="Q43" s="470" t="s">
+      <c r="Q43" s="273"/>
+      <c r="R43" s="273"/>
+      <c r="S43" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R43" s="470" t="s">
+      <c r="T43" s="470" t="s">
         <v>577</v>
       </c>
-      <c r="S43" s="274"/>
-      <c r="T43" s="273" t="s">
+      <c r="U43" s="274"/>
+      <c r="V43" s="273" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="275" t="s">
         <v>183</v>
       </c>
@@ -7621,25 +7722,27 @@
         <v>114</v>
       </c>
       <c r="K44" s="276"/>
-      <c r="L44" s="276">
+      <c r="L44" s="276"/>
+      <c r="M44" s="276">
         <v>294407</v>
       </c>
-      <c r="M44" s="276"/>
       <c r="N44" s="276"/>
       <c r="O44" s="276"/>
       <c r="P44" s="276"/>
-      <c r="Q44" s="470" t="s">
+      <c r="Q44" s="276"/>
+      <c r="R44" s="276"/>
+      <c r="S44" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R44" s="470" t="s">
+      <c r="T44" s="470" t="s">
         <v>578</v>
       </c>
-      <c r="S44" s="277"/>
-      <c r="T44" s="276" t="s">
+      <c r="U44" s="277"/>
+      <c r="V44" s="276" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="281" t="s">
         <v>183</v>
       </c>
@@ -7668,28 +7771,30 @@
       <c r="J45" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="282" t="s">
+      <c r="K45" s="282"/>
+      <c r="L45" s="282" t="s">
         <v>393</v>
       </c>
-      <c r="L45" s="282">
+      <c r="M45" s="282">
         <v>294402</v>
       </c>
-      <c r="M45" s="282"/>
       <c r="N45" s="282"/>
       <c r="O45" s="282"/>
       <c r="P45" s="282"/>
-      <c r="Q45" s="470" t="s">
+      <c r="Q45" s="282"/>
+      <c r="R45" s="282"/>
+      <c r="S45" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R45" s="470" t="s">
+      <c r="T45" s="470" t="s">
         <v>308</v>
       </c>
-      <c r="S45" s="283"/>
-      <c r="T45" s="282" t="s">
+      <c r="U45" s="283"/>
+      <c r="V45" s="282" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="293" t="s">
         <v>183</v>
       </c>
@@ -7718,28 +7823,30 @@
       <c r="J46" s="294" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="294" t="s">
+      <c r="K46" s="294"/>
+      <c r="L46" s="294" t="s">
         <v>300</v>
       </c>
-      <c r="L46" s="294">
+      <c r="M46" s="294">
         <v>288162</v>
       </c>
-      <c r="M46" s="294"/>
       <c r="N46" s="294"/>
       <c r="O46" s="294"/>
       <c r="P46" s="294"/>
-      <c r="Q46" s="470" t="s">
+      <c r="Q46" s="294"/>
+      <c r="R46" s="294"/>
+      <c r="S46" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R46" s="470" t="s">
+      <c r="T46" s="470" t="s">
         <v>580</v>
       </c>
-      <c r="S46" s="295"/>
-      <c r="T46" s="294" t="s">
+      <c r="U46" s="295"/>
+      <c r="V46" s="294" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="296" t="s">
         <v>183</v>
       </c>
@@ -7769,25 +7876,27 @@
         <v>75</v>
       </c>
       <c r="K47" s="297"/>
-      <c r="L47" s="297">
+      <c r="L47" s="297"/>
+      <c r="M47" s="297">
         <v>294588</v>
       </c>
-      <c r="M47" s="297"/>
       <c r="N47" s="297"/>
       <c r="O47" s="297"/>
       <c r="P47" s="297"/>
-      <c r="Q47" s="470" t="s">
+      <c r="Q47" s="297"/>
+      <c r="R47" s="297"/>
+      <c r="S47" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R47" s="470" t="s">
+      <c r="T47" s="470" t="s">
         <v>581</v>
       </c>
-      <c r="S47" s="298"/>
-      <c r="T47" s="297" t="s">
+      <c r="U47" s="298"/>
+      <c r="V47" s="297" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="305" t="s">
         <v>236</v>
       </c>
@@ -7816,28 +7925,30 @@
       <c r="J48" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="306" t="s">
+      <c r="K48" s="306"/>
+      <c r="L48" s="306" t="s">
         <v>300</v>
       </c>
-      <c r="L48" s="306">
+      <c r="M48" s="306">
         <v>285899</v>
       </c>
-      <c r="M48" s="306"/>
       <c r="N48" s="306"/>
       <c r="O48" s="306"/>
       <c r="P48" s="306"/>
-      <c r="Q48" s="470" t="s">
+      <c r="Q48" s="306"/>
+      <c r="R48" s="306"/>
+      <c r="S48" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R48" s="470" t="s">
+      <c r="T48" s="470" t="s">
         <v>311</v>
       </c>
-      <c r="S48" s="307"/>
-      <c r="T48" s="306" t="s">
+      <c r="U48" s="307"/>
+      <c r="V48" s="306" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="308" t="s">
         <v>183</v>
       </c>
@@ -7866,28 +7977,30 @@
       <c r="J49" s="309" t="s">
         <v>118</v>
       </c>
-      <c r="K49" s="309" t="s">
+      <c r="K49" s="309"/>
+      <c r="L49" s="309" t="s">
         <v>300</v>
       </c>
-      <c r="L49" s="309">
+      <c r="M49" s="309">
         <v>298846</v>
       </c>
-      <c r="M49" s="309"/>
       <c r="N49" s="309"/>
       <c r="O49" s="309"/>
       <c r="P49" s="309"/>
-      <c r="Q49" s="470" t="s">
+      <c r="Q49" s="309"/>
+      <c r="R49" s="309"/>
+      <c r="S49" s="470" t="s">
         <v>302</v>
       </c>
-      <c r="R49" s="470" t="s">
+      <c r="T49" s="470" t="s">
         <v>582</v>
       </c>
-      <c r="S49" s="310"/>
-      <c r="T49" s="309" t="s">
+      <c r="U49" s="310"/>
+      <c r="V49" s="309" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="311" t="s">
         <v>493</v>
       </c>
@@ -7917,25 +8030,27 @@
         <v>43</v>
       </c>
       <c r="K50" s="312"/>
-      <c r="L50" s="312">
+      <c r="L50" s="312"/>
+      <c r="M50" s="312">
         <v>288850</v>
       </c>
-      <c r="M50" s="312"/>
       <c r="N50" s="312"/>
       <c r="O50" s="312"/>
       <c r="P50" s="312"/>
-      <c r="Q50" s="470" t="s">
+      <c r="Q50" s="312"/>
+      <c r="R50" s="312"/>
+      <c r="S50" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R50" s="470" t="s">
+      <c r="T50" s="470" t="s">
         <v>229</v>
       </c>
-      <c r="S50" s="313"/>
-      <c r="T50" s="312" t="s">
+      <c r="U50" s="313"/>
+      <c r="V50" s="312" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="326" t="s">
         <v>183</v>
       </c>
@@ -7964,89 +8079,91 @@
       <c r="J51" s="327" t="s">
         <v>249</v>
       </c>
-      <c r="K51" s="327" t="s">
+      <c r="K51" s="327"/>
+      <c r="L51" s="327" t="s">
         <v>393</v>
       </c>
-      <c r="L51" s="327">
+      <c r="M51" s="327">
         <v>301700</v>
       </c>
-      <c r="M51" s="327"/>
       <c r="N51" s="327"/>
       <c r="O51" s="327"/>
       <c r="P51" s="327"/>
-      <c r="Q51" s="470" t="s">
+      <c r="Q51" s="327"/>
+      <c r="R51" s="327"/>
+      <c r="S51" s="470" t="s">
         <v>301</v>
       </c>
-      <c r="R51" s="470" t="s">
+      <c r="T51" s="470" t="s">
         <v>583</v>
       </c>
-      <c r="S51" s="328"/>
-      <c r="T51" s="327" t="s">
+      <c r="U51" s="328"/>
+      <c r="V51" s="327" t="s">
         <v>517</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T34">
+  <autoFilter ref="A1:V34">
     <sortState ref="A2:P37">
       <sortCondition ref="J1:J37"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null"/>
+    <hyperlink ref="M6" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null"/>
     <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="L9" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null"/>
+    <hyperlink ref="M9" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null"/>
     <hyperlink ref="J13" r:id="rId5"/>
-    <hyperlink ref="L13" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null"/>
+    <hyperlink ref="M13" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null"/>
     <hyperlink ref="J18" r:id="rId7"/>
-    <hyperlink ref="L18" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266null"/>
+    <hyperlink ref="M18" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0211_TRV_Dossier Num. Client NPC - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266null"/>
     <hyperlink ref="J5" r:id="rId9"/>
-    <hyperlink ref="L5" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null"/>
+    <hyperlink ref="M5" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null"/>
     <hyperlink ref="J8" r:id="rId11"/>
-    <hyperlink ref="L8" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null"/>
+    <hyperlink ref="M8" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null"/>
     <hyperlink ref="J29" r:id="rId13"/>
-    <hyperlink ref="L29" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694null"/>
+    <hyperlink ref="M29" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00157_MSP_NEO_D%C3%A9mat doss engagt entrep - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694null"/>
     <hyperlink ref="J21" r:id="rId15"/>
-    <hyperlink ref="L21" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771"/>
+    <hyperlink ref="M21" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301771" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301771"/>
     <hyperlink ref="J11" r:id="rId17"/>
-    <hyperlink ref="L11" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302782" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302782"/>
+    <hyperlink ref="M11" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302782" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302782"/>
     <hyperlink ref="J28" r:id="rId19"/>
-    <hyperlink ref="L28" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302841" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302841"/>
+    <hyperlink ref="M28" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302841" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302841"/>
     <hyperlink ref="J7" r:id="rId21"/>
-    <hyperlink ref="L7" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null"/>
+    <hyperlink ref="M7" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null"/>
     <hyperlink ref="J12" r:id="rId23"/>
-    <hyperlink ref="L12" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null"/>
+    <hyperlink ref="M12" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null"/>
     <hyperlink ref="J10" r:id="rId25"/>
-    <hyperlink ref="L10" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null"/>
+    <hyperlink ref="M10" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null"/>
     <hyperlink ref="J20" r:id="rId27"/>
-    <hyperlink ref="L20" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418nullnullnullnull"/>
+    <hyperlink ref="M20" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294418nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294418nullnullnullnull"/>
     <hyperlink ref="J24" r:id="rId29"/>
-    <hyperlink ref="L24" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838nullnullnullnullnull"/>
+    <hyperlink ref="M24" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00184_CRE_Process Agri-Pro - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838nullnullnullnullnull"/>
     <hyperlink ref="J3" r:id="rId31"/>
-    <hyperlink ref="L3" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull"/>
+    <hyperlink ref="M3" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull"/>
     <hyperlink ref="J17" r:id="rId33"/>
-    <hyperlink ref="L17" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406nullnullnullnullnull"/>
+    <hyperlink ref="M17" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406nullnullnullnullnull"/>
     <hyperlink ref="J16" r:id="rId35"/>
-    <hyperlink ref="L16" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408nullnullnullnullnull"/>
+    <hyperlink ref="M16" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0315_DML_MDC NPCD lot3 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408nullnullnullnullnull"/>
     <hyperlink ref="J2" r:id="rId37"/>
-    <hyperlink ref="L2" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull"/>
+    <hyperlink ref="M2" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull"/>
     <hyperlink ref="J19" r:id="rId39"/>
-    <hyperlink ref="L19" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063nullnullnullnullnull"/>
+    <hyperlink ref="M19" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0300_DML_Sol Genesys Multicanal - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063nullnullnullnullnull"/>
     <hyperlink ref="J23" r:id="rId41"/>
-    <hyperlink ref="L23" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360nullnullnullnullnull"/>
+    <hyperlink ref="M23" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294360nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0337_DML_SiMM Lot 4 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294360nullnullnullnullnull"/>
     <hyperlink ref="J14" r:id="rId43"/>
-    <hyperlink ref="L14" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull"/>
+    <hyperlink ref="M14" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull"/>
     <hyperlink ref="J22" r:id="rId45"/>
     <hyperlink ref="J15" r:id="rId46"/>
-    <hyperlink ref="L15" r:id="rId47" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302777nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302777nullnullnullnull"/>
+    <hyperlink ref="M15" r:id="rId47" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302777nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302777nullnullnullnull"/>
     <hyperlink ref="J4" r:id="rId48"/>
-    <hyperlink ref="L4" r:id="rId49" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull"/>
+    <hyperlink ref="M4" r:id="rId49" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull"/>
     <hyperlink ref="J26" r:id="rId50"/>
-    <hyperlink ref="L26" r:id="rId51" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494nullnullnullnullnull"/>
+    <hyperlink ref="M26" r:id="rId51" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307494nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0441_DML_Outils commerciaux Agenda - action=com.ibm.team.workitem.viewWorkItem&amp;id=307494nullnullnullnullnull"/>
     <hyperlink ref="J27" r:id="rId52"/>
-    <hyperlink ref="L27" r:id="rId53" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534nullnullnullnullnull"/>
+    <hyperlink ref="M27" r:id="rId53" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307534nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307534nullnullnullnullnull"/>
     <hyperlink ref="J31" r:id="rId54"/>
-    <hyperlink ref="L31" r:id="rId55" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551nullnullnullnullnull"/>
+    <hyperlink ref="M31" r:id="rId55" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307551nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000040_Maintenance MKT - action=com.ibm.team.workitem.viewWorkItem&amp;id=307551nullnullnullnullnull"/>
     <hyperlink ref="J32" r:id="rId56"/>
     <hyperlink ref="J25" r:id="rId57"/>
     <hyperlink ref="J30" r:id="rId58"/>
@@ -8056,33 +8173,33 @@
     <hyperlink ref="J36" r:id="rId62"/>
     <hyperlink ref="J37" r:id="rId63"/>
     <hyperlink ref="J38" r:id="rId64"/>
-    <hyperlink ref="L38" r:id="rId65" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775"/>
+    <hyperlink ref="M38" r:id="rId65" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301775" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301775"/>
     <hyperlink ref="J39" r:id="rId66"/>
-    <hyperlink ref="L39" r:id="rId67" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554"/>
+    <hyperlink ref="M39" r:id="rId67" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307554" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307554"/>
     <hyperlink ref="J40" r:id="rId68"/>
-    <hyperlink ref="L40" r:id="rId69" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=309174" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=309174"/>
+    <hyperlink ref="M40" r:id="rId69" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=309174" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=309174"/>
     <hyperlink ref="J41" r:id="rId70"/>
-    <hyperlink ref="L41" r:id="rId71" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310986" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310986"/>
+    <hyperlink ref="M41" r:id="rId71" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310986" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310986"/>
     <hyperlink ref="J42" r:id="rId72"/>
-    <hyperlink ref="L42" r:id="rId73" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577"/>
+    <hyperlink ref="M42" r:id="rId73" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294577" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294577"/>
     <hyperlink ref="J43" r:id="rId74"/>
-    <hyperlink ref="L43" r:id="rId75" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266"/>
+    <hyperlink ref="M43" r:id="rId75" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294266" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294266"/>
     <hyperlink ref="J44" r:id="rId76"/>
-    <hyperlink ref="L44" r:id="rId77" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407"/>
+    <hyperlink ref="M44" r:id="rId77" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294407"/>
     <hyperlink ref="J45" r:id="rId78"/>
-    <hyperlink ref="L45" r:id="rId79" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402"/>
+    <hyperlink ref="M45" r:id="rId79" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294402"/>
     <hyperlink ref="J46" r:id="rId80"/>
-    <hyperlink ref="L46" r:id="rId81" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288162" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288162"/>
+    <hyperlink ref="M46" r:id="rId81" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288162" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288162"/>
     <hyperlink ref="J47" r:id="rId82"/>
-    <hyperlink ref="L47" r:id="rId83" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588"/>
+    <hyperlink ref="M47" r:id="rId83" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294588" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294588"/>
     <hyperlink ref="J48" r:id="rId84"/>
-    <hyperlink ref="L48" r:id="rId85" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285899" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285899"/>
+    <hyperlink ref="M48" r:id="rId85" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285899" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285899"/>
     <hyperlink ref="J49" r:id="rId86"/>
-    <hyperlink ref="L49" r:id="rId87" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846"/>
+    <hyperlink ref="M49" r:id="rId87" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298846" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298846"/>
     <hyperlink ref="J50" r:id="rId88"/>
-    <hyperlink ref="L50" r:id="rId89" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288850" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288850"/>
+    <hyperlink ref="M50" r:id="rId89" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288850" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288850"/>
     <hyperlink ref="J51" r:id="rId90"/>
-    <hyperlink ref="L51" r:id="rId91" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700"/>
+    <hyperlink ref="M51" r:id="rId91" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301700" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301700"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId92"/>
@@ -9060,10 +9177,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,19 +9195,21 @@
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="100.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="100.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="213" t="s">
         <v>125</v>
       </c>
@@ -9121,41 +9240,47 @@
       <c r="J1" s="221" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="222" t="s">
+      <c r="K1" s="229" t="s">
+        <v>606</v>
+      </c>
+      <c r="L1" s="222" t="s">
         <v>475</v>
       </c>
-      <c r="L1" s="223" t="s">
+      <c r="M1" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="229" t="s">
+      <c r="N1" s="229" t="s">
         <v>596</v>
       </c>
-      <c r="N1" s="229" t="s">
+      <c r="O1" s="229" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="224" t="s">
+      <c r="P1" s="224" t="s">
         <v>571</v>
       </c>
-      <c r="P1" s="226" t="s">
+      <c r="Q1" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="Q1" s="225" t="s">
+      <c r="R1" s="229" t="s">
+        <v>605</v>
+      </c>
+      <c r="S1" s="225" t="s">
         <v>474</v>
       </c>
-      <c r="R1" s="227" t="s">
+      <c r="T1" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="228" t="s">
+      <c r="U1" s="228" t="s">
         <v>476</v>
       </c>
-      <c r="T1" s="229" t="s">
+      <c r="V1" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="U1" s="229" t="s">
+      <c r="W1" s="229" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="230" t="s">
         <v>134</v>
       </c>
@@ -9184,32 +9309,34 @@
       <c r="J2" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="231"/>
+      <c r="L2" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="L2" s="231">
+      <c r="M2" s="231">
         <v>298842</v>
       </c>
-      <c r="M2" s="544"/>
       <c r="N2" s="544"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232">
+      <c r="O2" s="544"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232">
         <v>43158</v>
       </c>
-      <c r="Q2" s="230" t="s">
+      <c r="R2" s="472"/>
+      <c r="S2" s="230" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="230" t="s">
+      <c r="T2" s="230" t="s">
         <v>532</v>
       </c>
-      <c r="S2" s="231" t="s">
+      <c r="U2" s="231" t="s">
         <v>516</v>
       </c>
-      <c r="T2" s="231" t="s">
+      <c r="V2" s="231" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="236" t="s">
         <v>139</v>
       </c>
@@ -9238,32 +9365,34 @@
       <c r="J3" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="237" t="s">
+      <c r="K3" s="237"/>
+      <c r="L3" s="237" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="237">
+      <c r="M3" s="237">
         <v>292733</v>
       </c>
-      <c r="M3" s="545"/>
       <c r="N3" s="545"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238">
+      <c r="O3" s="545"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238">
         <v>43165</v>
       </c>
-      <c r="Q3" s="236" t="s">
+      <c r="R3" s="487"/>
+      <c r="S3" s="236" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="236" t="s">
+      <c r="T3" s="236" t="s">
         <v>575</v>
       </c>
-      <c r="S3" s="237" t="s">
-        <v>493</v>
-      </c>
-      <c r="T3" s="237" t="s">
+      <c r="U3" s="237" t="s">
+        <v>493</v>
+      </c>
+      <c r="V3" s="237" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="239" t="s">
         <v>139</v>
       </c>
@@ -9292,32 +9421,34 @@
       <c r="J4" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="240" t="s">
+      <c r="K4" s="240"/>
+      <c r="L4" s="240" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="240">
+      <c r="M4" s="240">
         <v>292733</v>
       </c>
-      <c r="M4" s="545" t="s">
+      <c r="N4" s="545" t="s">
         <v>597</v>
       </c>
-      <c r="N4" s="545"/>
-      <c r="O4" s="241"/>
+      <c r="O4" s="545"/>
       <c r="P4" s="241"/>
-      <c r="Q4" s="239" t="s">
+      <c r="Q4" s="241"/>
+      <c r="R4" s="487"/>
+      <c r="S4" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="239" t="s">
+      <c r="T4" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="240" t="s">
-        <v>493</v>
-      </c>
-      <c r="T4" s="240" t="s">
+      <c r="U4" s="240" t="s">
+        <v>493</v>
+      </c>
+      <c r="V4" s="240" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="242" t="s">
         <v>139</v>
       </c>
@@ -9346,32 +9477,34 @@
       <c r="J5" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="243" t="s">
+      <c r="K5" s="243"/>
+      <c r="L5" s="243" t="s">
         <v>393</v>
       </c>
-      <c r="L5" s="243">
+      <c r="M5" s="243">
         <v>294600</v>
       </c>
-      <c r="M5" s="545"/>
       <c r="N5" s="545"/>
-      <c r="O5" s="244"/>
-      <c r="P5" s="244">
+      <c r="O5" s="545"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244">
         <v>43165</v>
       </c>
-      <c r="Q5" s="242" t="s">
+      <c r="R5" s="487"/>
+      <c r="S5" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="242" t="s">
+      <c r="T5" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="243" t="s">
-        <v>493</v>
-      </c>
-      <c r="T5" s="243" t="s">
+      <c r="U5" s="243" t="s">
+        <v>493</v>
+      </c>
+      <c r="V5" s="243" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="245" t="s">
         <v>139</v>
       </c>
@@ -9400,32 +9533,34 @@
       <c r="J6" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="246" t="s">
+      <c r="K6" s="246"/>
+      <c r="L6" s="246" t="s">
         <v>393</v>
       </c>
-      <c r="L6" s="246">
+      <c r="M6" s="246">
         <v>285917</v>
       </c>
-      <c r="M6" s="545"/>
       <c r="N6" s="545"/>
-      <c r="O6" s="247"/>
-      <c r="P6" s="247">
+      <c r="O6" s="545"/>
+      <c r="P6" s="247"/>
+      <c r="Q6" s="247">
         <v>43165</v>
       </c>
-      <c r="Q6" s="245" t="s">
+      <c r="R6" s="487"/>
+      <c r="S6" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="245" t="s">
+      <c r="T6" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="S6" s="246" t="s">
-        <v>493</v>
-      </c>
-      <c r="T6" s="246" t="s">
+      <c r="U6" s="246" t="s">
+        <v>493</v>
+      </c>
+      <c r="V6" s="246" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="248" t="s">
         <v>139</v>
       </c>
@@ -9454,30 +9589,32 @@
       <c r="J7" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="249" t="s">
+      <c r="K7" s="249"/>
+      <c r="L7" s="249" t="s">
         <v>393</v>
       </c>
-      <c r="L7" s="249">
+      <c r="M7" s="249">
         <v>294557</v>
       </c>
-      <c r="M7" s="545"/>
       <c r="N7" s="545"/>
-      <c r="O7" s="250"/>
+      <c r="O7" s="545"/>
       <c r="P7" s="250"/>
-      <c r="Q7" s="248" t="s">
+      <c r="Q7" s="250"/>
+      <c r="R7" s="487"/>
+      <c r="S7" s="248" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="248" t="s">
+      <c r="T7" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="249" t="s">
-        <v>493</v>
-      </c>
-      <c r="T7" s="249" t="s">
+      <c r="U7" s="249" t="s">
+        <v>493</v>
+      </c>
+      <c r="V7" s="249" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="251" t="s">
         <v>139</v>
       </c>
@@ -9506,32 +9643,34 @@
       <c r="J8" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="252" t="s">
+      <c r="K8" s="252"/>
+      <c r="L8" s="252" t="s">
         <v>303</v>
       </c>
-      <c r="L8" s="252">
+      <c r="M8" s="252">
         <v>285919</v>
       </c>
-      <c r="M8" s="545"/>
       <c r="N8" s="545"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="253">
+      <c r="O8" s="545"/>
+      <c r="P8" s="253"/>
+      <c r="Q8" s="253">
         <v>43165</v>
       </c>
-      <c r="Q8" s="251" t="s">
+      <c r="R8" s="487"/>
+      <c r="S8" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="R8" s="251" t="s">
+      <c r="T8" s="251" t="s">
         <v>304</v>
       </c>
-      <c r="S8" s="252" t="s">
-        <v>493</v>
-      </c>
-      <c r="T8" s="252" t="s">
+      <c r="U8" s="252" t="s">
+        <v>493</v>
+      </c>
+      <c r="V8" s="252" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="254" t="s">
         <v>139</v>
       </c>
@@ -9560,30 +9699,34 @@
       <c r="J9" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="255" t="s">
+      <c r="K9" s="255"/>
+      <c r="L9" s="255" t="s">
         <v>303</v>
       </c>
-      <c r="L9" s="255">
+      <c r="M9" s="255">
         <v>292305</v>
       </c>
-      <c r="M9" s="545"/>
-      <c r="N9" s="545"/>
-      <c r="O9" s="256"/>
+      <c r="N9" s="545" t="s">
+        <v>607</v>
+      </c>
+      <c r="O9" s="545"/>
       <c r="P9" s="256"/>
-      <c r="Q9" s="254" t="s">
+      <c r="Q9" s="256"/>
+      <c r="R9" s="487"/>
+      <c r="S9" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="R9" s="254" t="s">
+      <c r="T9" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="255" t="s">
-        <v>493</v>
-      </c>
-      <c r="T9" s="255" t="s">
+      <c r="U9" s="255" t="s">
+        <v>493</v>
+      </c>
+      <c r="V9" s="255" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="257" t="s">
         <v>568</v>
       </c>
@@ -9612,30 +9755,32 @@
       <c r="J10" s="258" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="258" t="s">
+      <c r="K10" s="258"/>
+      <c r="L10" s="258" t="s">
         <v>393</v>
       </c>
-      <c r="L10" s="258">
+      <c r="M10" s="258">
         <v>262607</v>
       </c>
-      <c r="M10" s="545"/>
       <c r="N10" s="545"/>
-      <c r="O10" s="259"/>
+      <c r="O10" s="545"/>
       <c r="P10" s="259"/>
-      <c r="Q10" s="257" t="s">
+      <c r="Q10" s="259"/>
+      <c r="R10" s="487"/>
+      <c r="S10" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="R10" s="257" t="s">
+      <c r="T10" s="257" t="s">
         <v>533</v>
       </c>
-      <c r="S10" s="258" t="s">
+      <c r="U10" s="258" t="s">
         <v>516</v>
       </c>
-      <c r="T10" s="258" t="s">
+      <c r="V10" s="258" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="260" t="s">
         <v>159</v>
       </c>
@@ -9664,32 +9809,34 @@
       <c r="J11" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="261" t="s">
+      <c r="K11" s="261"/>
+      <c r="L11" s="261" t="s">
         <v>300</v>
       </c>
-      <c r="L11" s="261">
+      <c r="M11" s="261">
         <v>298838</v>
       </c>
-      <c r="M11" s="545"/>
       <c r="N11" s="545"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262">
+      <c r="O11" s="545"/>
+      <c r="P11" s="262"/>
+      <c r="Q11" s="262">
         <v>43165</v>
       </c>
-      <c r="Q11" s="260" t="s">
+      <c r="R11" s="487"/>
+      <c r="S11" s="260" t="s">
         <v>138</v>
       </c>
-      <c r="R11" s="260" t="s">
+      <c r="T11" s="260" t="s">
         <v>576</v>
       </c>
-      <c r="S11" s="261" t="s">
+      <c r="U11" s="261" t="s">
         <v>516</v>
       </c>
-      <c r="T11" s="261" t="s">
+      <c r="V11" s="261" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="263" t="s">
         <v>183</v>
       </c>
@@ -9718,30 +9865,32 @@
       <c r="J12" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="264" t="s">
+      <c r="K12" s="264"/>
+      <c r="L12" s="264" t="s">
         <v>393</v>
       </c>
-      <c r="L12" s="264">
+      <c r="M12" s="264">
         <v>285884</v>
       </c>
-      <c r="M12" s="545"/>
       <c r="N12" s="545"/>
-      <c r="O12" s="265"/>
+      <c r="O12" s="545"/>
       <c r="P12" s="265"/>
-      <c r="Q12" s="263" t="s">
+      <c r="Q12" s="265"/>
+      <c r="R12" s="487"/>
+      <c r="S12" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="263" t="s">
+      <c r="T12" s="263" t="s">
         <v>182</v>
       </c>
-      <c r="S12" s="264" t="s">
-        <v>493</v>
-      </c>
-      <c r="T12" s="264" t="s">
+      <c r="U12" s="264" t="s">
+        <v>493</v>
+      </c>
+      <c r="V12" s="264" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="266" t="s">
         <v>183</v>
       </c>
@@ -9770,30 +9919,32 @@
       <c r="J13" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="267" t="s">
+      <c r="K13" s="267"/>
+      <c r="L13" s="267" t="s">
         <v>307</v>
       </c>
-      <c r="L13" s="267">
+      <c r="M13" s="267">
         <v>285896</v>
       </c>
-      <c r="M13" s="545"/>
       <c r="N13" s="545"/>
-      <c r="O13" s="268"/>
+      <c r="O13" s="545"/>
       <c r="P13" s="268"/>
-      <c r="Q13" s="266" t="s">
+      <c r="Q13" s="268"/>
+      <c r="R13" s="487"/>
+      <c r="S13" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="R13" s="266" t="s">
+      <c r="T13" s="266" t="s">
         <v>306</v>
       </c>
-      <c r="S13" s="267" t="s">
-        <v>493</v>
-      </c>
-      <c r="T13" s="267" t="s">
+      <c r="U13" s="267" t="s">
+        <v>493</v>
+      </c>
+      <c r="V13" s="267" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="269" t="s">
         <v>183</v>
       </c>
@@ -9822,30 +9973,32 @@
       <c r="J14" s="270" t="s">
         <v>375</v>
       </c>
-      <c r="K14" s="270" t="s">
+      <c r="K14" s="270"/>
+      <c r="L14" s="270" t="s">
         <v>300</v>
       </c>
-      <c r="L14" s="270">
+      <c r="M14" s="270">
         <v>262615</v>
       </c>
-      <c r="M14" s="545"/>
       <c r="N14" s="545"/>
-      <c r="O14" s="271"/>
+      <c r="O14" s="545"/>
       <c r="P14" s="271"/>
-      <c r="Q14" s="269" t="s">
+      <c r="Q14" s="271"/>
+      <c r="R14" s="487"/>
+      <c r="S14" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="R14" s="269" t="s">
+      <c r="T14" s="269" t="s">
         <v>195</v>
       </c>
-      <c r="S14" s="270" t="s">
-        <v>493</v>
-      </c>
-      <c r="T14" s="270" t="s">
+      <c r="U14" s="270" t="s">
+        <v>493</v>
+      </c>
+      <c r="V14" s="270" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="278" t="s">
         <v>183</v>
       </c>
@@ -9875,29 +10028,31 @@
         <v>78</v>
       </c>
       <c r="K15" s="279"/>
-      <c r="L15" s="279">
+      <c r="L15" s="279"/>
+      <c r="M15" s="279">
         <v>294426</v>
       </c>
-      <c r="M15" s="545"/>
       <c r="N15" s="545"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="280">
+      <c r="O15" s="545"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280">
         <v>43165</v>
       </c>
-      <c r="Q15" s="278" t="s">
+      <c r="R15" s="487"/>
+      <c r="S15" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="R15" s="278" t="s">
+      <c r="T15" s="278" t="s">
         <v>579</v>
       </c>
-      <c r="S15" s="279" t="s">
-        <v>493</v>
-      </c>
-      <c r="T15" s="279" t="s">
+      <c r="U15" s="279" t="s">
+        <v>493</v>
+      </c>
+      <c r="V15" s="279" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="284" t="s">
         <v>183</v>
       </c>
@@ -9926,30 +10081,32 @@
       <c r="J16" s="285" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="285" t="s">
+      <c r="K16" s="285"/>
+      <c r="L16" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="L16" s="285">
+      <c r="M16" s="285">
         <v>294408</v>
       </c>
-      <c r="M16" s="545"/>
       <c r="N16" s="545"/>
-      <c r="O16" s="286"/>
+      <c r="O16" s="545"/>
       <c r="P16" s="286"/>
-      <c r="Q16" s="284" t="s">
+      <c r="Q16" s="286"/>
+      <c r="R16" s="487"/>
+      <c r="S16" s="284" t="s">
         <v>149</v>
       </c>
-      <c r="R16" s="284" t="s">
+      <c r="T16" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="S16" s="285" t="s">
-        <v>493</v>
-      </c>
-      <c r="T16" s="285" t="s">
+      <c r="U16" s="285" t="s">
+        <v>493</v>
+      </c>
+      <c r="V16" s="285" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="287" t="s">
         <v>183</v>
       </c>
@@ -9979,29 +10136,31 @@
         <v>47</v>
       </c>
       <c r="K17" s="288"/>
-      <c r="L17" s="288">
+      <c r="L17" s="288"/>
+      <c r="M17" s="288">
         <v>294573</v>
       </c>
-      <c r="M17" s="545"/>
       <c r="N17" s="545"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="289">
+      <c r="O17" s="545"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="289">
         <v>43165</v>
       </c>
-      <c r="Q17" s="287" t="s">
+      <c r="R17" s="487"/>
+      <c r="S17" s="287" t="s">
         <v>138</v>
       </c>
-      <c r="R17" s="287" t="s">
+      <c r="T17" s="287" t="s">
         <v>206</v>
       </c>
-      <c r="S17" s="288" t="s">
-        <v>493</v>
-      </c>
-      <c r="T17" s="288" t="s">
+      <c r="U17" s="288" t="s">
+        <v>493</v>
+      </c>
+      <c r="V17" s="288" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="290" t="s">
         <v>183</v>
       </c>
@@ -10030,30 +10189,32 @@
       <c r="J18" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="291" t="s">
+      <c r="K18" s="291"/>
+      <c r="L18" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="L18" s="291">
+      <c r="M18" s="291">
         <v>288251</v>
       </c>
-      <c r="M18" s="545"/>
       <c r="N18" s="545"/>
-      <c r="O18" s="292"/>
+      <c r="O18" s="545"/>
       <c r="P18" s="292"/>
-      <c r="Q18" s="290" t="s">
+      <c r="Q18" s="292"/>
+      <c r="R18" s="487"/>
+      <c r="S18" s="290" t="s">
         <v>138</v>
       </c>
-      <c r="R18" s="290" t="s">
+      <c r="T18" s="290" t="s">
         <v>310</v>
       </c>
-      <c r="S18" s="291" t="s">
+      <c r="U18" s="291" t="s">
         <v>516</v>
       </c>
-      <c r="T18" s="291" t="s">
+      <c r="V18" s="291" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="299" t="s">
         <v>183</v>
       </c>
@@ -10082,32 +10243,34 @@
       <c r="J19" s="300" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="300" t="s">
+      <c r="K19" s="300"/>
+      <c r="L19" s="300" t="s">
         <v>300</v>
       </c>
-      <c r="L19" s="300">
+      <c r="M19" s="300">
         <v>294063</v>
       </c>
-      <c r="M19" s="545"/>
       <c r="N19" s="545"/>
-      <c r="O19" s="301"/>
-      <c r="P19" s="301">
+      <c r="O19" s="545"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301">
         <v>43165</v>
       </c>
-      <c r="Q19" s="299" t="s">
+      <c r="R19" s="487"/>
+      <c r="S19" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="R19" s="299" t="s">
+      <c r="T19" s="299" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="300" t="s">
+      <c r="U19" s="300" t="s">
         <v>516</v>
       </c>
-      <c r="T19" s="300" t="s">
+      <c r="V19" s="300" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="302" t="s">
         <v>568</v>
       </c>
@@ -10137,27 +10300,29 @@
         <v>38</v>
       </c>
       <c r="K20" s="303"/>
-      <c r="L20" s="303">
+      <c r="L20" s="303"/>
+      <c r="M20" s="303">
         <v>288150</v>
       </c>
-      <c r="M20" s="545"/>
       <c r="N20" s="545"/>
-      <c r="O20" s="304"/>
+      <c r="O20" s="545"/>
       <c r="P20" s="304"/>
-      <c r="Q20" s="302" t="s">
+      <c r="Q20" s="304"/>
+      <c r="R20" s="487"/>
+      <c r="S20" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="302" t="s">
+      <c r="T20" s="302" t="s">
         <v>182</v>
       </c>
-      <c r="S20" s="303" t="s">
-        <v>493</v>
-      </c>
-      <c r="T20" s="303" t="s">
+      <c r="U20" s="303" t="s">
+        <v>493</v>
+      </c>
+      <c r="V20" s="303" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="314" t="s">
         <v>236</v>
       </c>
@@ -10186,32 +10351,34 @@
       <c r="J21" s="315" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="315" t="s">
+      <c r="K21" s="315"/>
+      <c r="L21" s="315" t="s">
         <v>300</v>
       </c>
-      <c r="L21" s="315">
+      <c r="M21" s="315">
         <v>292694</v>
       </c>
-      <c r="M21" s="545"/>
       <c r="N21" s="545"/>
-      <c r="O21" s="316"/>
-      <c r="P21" s="316">
+      <c r="O21" s="545"/>
+      <c r="P21" s="316"/>
+      <c r="Q21" s="316">
         <v>43165</v>
       </c>
-      <c r="Q21" s="314" t="s">
+      <c r="R21" s="487"/>
+      <c r="S21" s="314" t="s">
         <v>209</v>
       </c>
-      <c r="R21" s="314" t="s">
+      <c r="T21" s="314" t="s">
         <v>143</v>
       </c>
-      <c r="S21" s="315" t="s">
-        <v>493</v>
-      </c>
-      <c r="T21" s="315" t="s">
+      <c r="U21" s="315" t="s">
+        <v>493</v>
+      </c>
+      <c r="V21" s="315" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="317" t="s">
         <v>236</v>
       </c>
@@ -10240,30 +10407,32 @@
       <c r="J22" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="318" t="s">
+      <c r="K22" s="318"/>
+      <c r="L22" s="318" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="318">
+      <c r="M22" s="318">
         <v>294594</v>
       </c>
-      <c r="M22" s="545"/>
       <c r="N22" s="545"/>
-      <c r="O22" s="319"/>
+      <c r="O22" s="545"/>
       <c r="P22" s="319"/>
-      <c r="Q22" s="317" t="s">
+      <c r="Q22" s="319"/>
+      <c r="R22" s="487"/>
+      <c r="S22" s="317" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="317" t="s">
+      <c r="T22" s="317" t="s">
         <v>241</v>
       </c>
-      <c r="S22" s="318" t="s">
-        <v>493</v>
-      </c>
-      <c r="T22" s="318" t="s">
+      <c r="U22" s="318" t="s">
+        <v>493</v>
+      </c>
+      <c r="V22" s="318" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="320" t="s">
         <v>493</v>
       </c>
@@ -10292,30 +10461,32 @@
       <c r="J23" s="321" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="321" t="s">
+      <c r="K23" s="321"/>
+      <c r="L23" s="321" t="s">
         <v>393</v>
       </c>
-      <c r="L23" s="321">
+      <c r="M23" s="321">
         <v>294568</v>
       </c>
-      <c r="M23" s="545"/>
       <c r="N23" s="545"/>
-      <c r="O23" s="322"/>
+      <c r="O23" s="545"/>
       <c r="P23" s="322"/>
-      <c r="Q23" s="320" t="s">
+      <c r="Q23" s="322"/>
+      <c r="R23" s="487"/>
+      <c r="S23" s="320" t="s">
         <v>138</v>
       </c>
-      <c r="R23" s="320" t="s">
+      <c r="T23" s="320" t="s">
         <v>246</v>
       </c>
-      <c r="S23" s="321" t="s">
-        <v>493</v>
-      </c>
-      <c r="T23" s="321" t="s">
+      <c r="U23" s="321" t="s">
+        <v>493</v>
+      </c>
+      <c r="V23" s="321" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="323" t="s">
         <v>493</v>
       </c>
@@ -10344,32 +10515,34 @@
       <c r="J24" s="324" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="324" t="s">
+      <c r="K24" s="324"/>
+      <c r="L24" s="324" t="s">
         <v>300</v>
       </c>
-      <c r="L24" s="324">
+      <c r="M24" s="324">
         <v>294591</v>
       </c>
-      <c r="M24" s="545"/>
       <c r="N24" s="545"/>
-      <c r="O24" s="325"/>
-      <c r="P24" s="325">
+      <c r="O24" s="545"/>
+      <c r="P24" s="325"/>
+      <c r="Q24" s="325">
         <v>43165</v>
       </c>
-      <c r="Q24" s="323" t="s">
+      <c r="R24" s="487"/>
+      <c r="S24" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="323" t="s">
+      <c r="T24" s="323" t="s">
         <v>246</v>
       </c>
-      <c r="S24" s="324" t="s">
-        <v>493</v>
-      </c>
-      <c r="T24" s="324" t="s">
+      <c r="U24" s="324" t="s">
+        <v>493</v>
+      </c>
+      <c r="V24" s="324" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="329" t="s">
         <v>493</v>
       </c>
@@ -10399,27 +10572,29 @@
         <v>252</v>
       </c>
       <c r="K25" s="330"/>
-      <c r="L25" s="330">
+      <c r="L25" s="330"/>
+      <c r="M25" s="330">
         <v>301710</v>
       </c>
-      <c r="M25" s="545"/>
       <c r="N25" s="545"/>
-      <c r="O25" s="331"/>
+      <c r="O25" s="545"/>
       <c r="P25" s="331"/>
-      <c r="Q25" s="329" t="s">
+      <c r="Q25" s="331"/>
+      <c r="R25" s="487"/>
+      <c r="S25" s="329" t="s">
         <v>312</v>
       </c>
-      <c r="R25" s="329" t="s">
-        <v>493</v>
-      </c>
-      <c r="S25" s="330" t="s">
-        <v>493</v>
-      </c>
-      <c r="T25" s="330" t="s">
+      <c r="T25" s="329" t="s">
+        <v>493</v>
+      </c>
+      <c r="U25" s="330" t="s">
+        <v>493</v>
+      </c>
+      <c r="V25" s="330" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="332" t="s">
         <v>493</v>
       </c>
@@ -10448,32 +10623,34 @@
       <c r="J26" s="333" t="s">
         <v>253</v>
       </c>
-      <c r="K26" s="333" t="s">
+      <c r="K26" s="333"/>
+      <c r="L26" s="333" t="s">
         <v>300</v>
       </c>
-      <c r="L26" s="333">
+      <c r="M26" s="333">
         <v>301717</v>
       </c>
-      <c r="M26" s="545"/>
       <c r="N26" s="545"/>
-      <c r="O26" s="334"/>
-      <c r="P26" s="334">
+      <c r="O26" s="545"/>
+      <c r="P26" s="334"/>
+      <c r="Q26" s="334">
         <v>43165</v>
       </c>
-      <c r="Q26" s="332" t="s">
-        <v>493</v>
-      </c>
-      <c r="R26" s="332" t="s">
+      <c r="R26" s="487"/>
+      <c r="S26" s="332" t="s">
+        <v>493</v>
+      </c>
+      <c r="T26" s="332" t="s">
         <v>313</v>
       </c>
-      <c r="S26" s="333" t="s">
-        <v>493</v>
-      </c>
-      <c r="T26" s="333" t="s">
+      <c r="U26" s="333" t="s">
+        <v>493</v>
+      </c>
+      <c r="V26" s="333" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="335" t="s">
         <v>183</v>
       </c>
@@ -10502,30 +10679,32 @@
       <c r="J27" s="336" t="s">
         <v>256</v>
       </c>
-      <c r="K27" s="336" t="s">
+      <c r="K27" s="336"/>
+      <c r="L27" s="336" t="s">
         <v>307</v>
       </c>
-      <c r="L27" s="336">
+      <c r="M27" s="336">
         <v>301750</v>
       </c>
-      <c r="M27" s="545"/>
       <c r="N27" s="545"/>
-      <c r="O27" s="337"/>
+      <c r="O27" s="545"/>
       <c r="P27" s="337"/>
-      <c r="Q27" s="335" t="s">
-        <v>493</v>
-      </c>
-      <c r="R27" s="335" t="s">
+      <c r="Q27" s="337"/>
+      <c r="R27" s="487"/>
+      <c r="S27" s="335" t="s">
+        <v>493</v>
+      </c>
+      <c r="T27" s="335" t="s">
         <v>314</v>
       </c>
-      <c r="S27" s="336" t="s">
-        <v>493</v>
-      </c>
-      <c r="T27" s="336" t="s">
+      <c r="U27" s="336" t="s">
+        <v>493</v>
+      </c>
+      <c r="V27" s="336" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="338" t="s">
         <v>493</v>
       </c>
@@ -10554,28 +10733,30 @@
       <c r="J28" s="339" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="339" t="s">
+      <c r="K28" s="339"/>
+      <c r="L28" s="339" t="s">
         <v>300</v>
       </c>
-      <c r="L28" s="339"/>
-      <c r="M28" s="545"/>
+      <c r="M28" s="339"/>
       <c r="N28" s="545"/>
-      <c r="O28" s="340"/>
+      <c r="O28" s="545"/>
       <c r="P28" s="340"/>
-      <c r="Q28" s="338" t="s">
-        <v>493</v>
-      </c>
-      <c r="R28" s="338" t="s">
+      <c r="Q28" s="340"/>
+      <c r="R28" s="487"/>
+      <c r="S28" s="338" t="s">
+        <v>493</v>
+      </c>
+      <c r="T28" s="338" t="s">
         <v>255</v>
       </c>
-      <c r="S28" s="339" t="s">
-        <v>493</v>
-      </c>
-      <c r="T28" s="339" t="s">
+      <c r="U28" s="339" t="s">
+        <v>493</v>
+      </c>
+      <c r="V28" s="339" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="341" t="s">
         <v>568</v>
       </c>
@@ -10604,30 +10785,32 @@
       <c r="J29" s="342" t="s">
         <v>259</v>
       </c>
-      <c r="K29" s="342" t="s">
+      <c r="K29" s="342"/>
+      <c r="L29" s="342" t="s">
         <v>393</v>
       </c>
-      <c r="L29" s="342">
+      <c r="M29" s="342">
         <v>301756</v>
       </c>
-      <c r="M29" s="545"/>
       <c r="N29" s="545"/>
-      <c r="O29" s="343"/>
+      <c r="O29" s="545"/>
       <c r="P29" s="343"/>
-      <c r="Q29" s="341" t="s">
+      <c r="Q29" s="343"/>
+      <c r="R29" s="487"/>
+      <c r="S29" s="341" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="341" t="s">
+      <c r="T29" s="341" t="s">
         <v>584</v>
       </c>
-      <c r="S29" s="342" t="s">
-        <v>493</v>
-      </c>
-      <c r="T29" s="342" t="s">
+      <c r="U29" s="342" t="s">
+        <v>493</v>
+      </c>
+      <c r="V29" s="342" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="344" t="s">
         <v>493</v>
       </c>
@@ -10656,28 +10839,30 @@
       <c r="J30" s="345" t="s">
         <v>260</v>
       </c>
-      <c r="K30" s="345" t="s">
+      <c r="K30" s="345"/>
+      <c r="L30" s="345" t="s">
         <v>300</v>
       </c>
-      <c r="L30" s="345"/>
-      <c r="M30" s="544"/>
+      <c r="M30" s="345"/>
       <c r="N30" s="544"/>
-      <c r="O30" s="346"/>
+      <c r="O30" s="544"/>
       <c r="P30" s="346"/>
-      <c r="Q30" s="344" t="s">
-        <v>493</v>
-      </c>
-      <c r="R30" s="344" t="s">
+      <c r="Q30" s="346"/>
+      <c r="R30" s="472"/>
+      <c r="S30" s="344" t="s">
+        <v>493</v>
+      </c>
+      <c r="T30" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="S30" s="345" t="s">
-        <v>493</v>
-      </c>
-      <c r="T30" s="345" t="s">
+      <c r="U30" s="345" t="s">
+        <v>493</v>
+      </c>
+      <c r="V30" s="345" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="347" t="s">
         <v>183</v>
       </c>
@@ -10707,27 +10892,29 @@
         <v>264</v>
       </c>
       <c r="K31" s="348"/>
-      <c r="L31" s="348">
+      <c r="L31" s="348"/>
+      <c r="M31" s="348">
         <v>301765</v>
       </c>
-      <c r="M31" s="545"/>
       <c r="N31" s="545"/>
-      <c r="O31" s="349"/>
+      <c r="O31" s="545"/>
       <c r="P31" s="349"/>
-      <c r="Q31" s="347" t="s">
+      <c r="Q31" s="349"/>
+      <c r="R31" s="487"/>
+      <c r="S31" s="347" t="s">
         <v>265</v>
       </c>
-      <c r="R31" s="347" t="s">
-        <v>493</v>
-      </c>
-      <c r="S31" s="348" t="s">
-        <v>493</v>
-      </c>
-      <c r="T31" s="348" t="s">
+      <c r="T31" s="347" t="s">
+        <v>493</v>
+      </c>
+      <c r="U31" s="348" t="s">
+        <v>493</v>
+      </c>
+      <c r="V31" s="348" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="350" t="s">
         <v>183</v>
       </c>
@@ -10758,24 +10945,26 @@
       </c>
       <c r="K32" s="351"/>
       <c r="L32" s="351"/>
-      <c r="M32" s="544"/>
+      <c r="M32" s="351"/>
       <c r="N32" s="544"/>
-      <c r="O32" s="352"/>
+      <c r="O32" s="544"/>
       <c r="P32" s="352"/>
-      <c r="Q32" s="350" t="s">
-        <v>493</v>
-      </c>
-      <c r="R32" s="350" t="s">
+      <c r="Q32" s="352"/>
+      <c r="R32" s="472"/>
+      <c r="S32" s="350" t="s">
+        <v>493</v>
+      </c>
+      <c r="T32" s="350" t="s">
         <v>268</v>
       </c>
-      <c r="S32" s="351" t="s">
+      <c r="U32" s="351" t="s">
         <v>516</v>
       </c>
-      <c r="T32" s="351" t="s">
+      <c r="V32" s="351" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="353" t="s">
         <v>493</v>
       </c>
@@ -10804,28 +10993,30 @@
       <c r="J33" s="354" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="354" t="s">
+      <c r="K33" s="354"/>
+      <c r="L33" s="354" t="s">
         <v>393</v>
       </c>
-      <c r="L33" s="354"/>
-      <c r="M33" s="545"/>
+      <c r="M33" s="354"/>
       <c r="N33" s="545"/>
-      <c r="O33" s="355"/>
+      <c r="O33" s="545"/>
       <c r="P33" s="355"/>
-      <c r="Q33" s="353" t="s">
-        <v>493</v>
-      </c>
-      <c r="R33" s="353" t="s">
+      <c r="Q33" s="355"/>
+      <c r="R33" s="487"/>
+      <c r="S33" s="353" t="s">
+        <v>493</v>
+      </c>
+      <c r="T33" s="353" t="s">
         <v>585</v>
       </c>
-      <c r="S33" s="354" t="s">
-        <v>493</v>
-      </c>
-      <c r="T33" s="354" t="s">
+      <c r="U33" s="354" t="s">
+        <v>493</v>
+      </c>
+      <c r="V33" s="354" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="356" t="s">
         <v>493</v>
       </c>
@@ -10856,24 +11047,26 @@
       </c>
       <c r="K34" s="357"/>
       <c r="L34" s="357"/>
-      <c r="M34" s="545"/>
+      <c r="M34" s="357"/>
       <c r="N34" s="545"/>
-      <c r="O34" s="358"/>
+      <c r="O34" s="545"/>
       <c r="P34" s="358"/>
-      <c r="Q34" s="356" t="s">
-        <v>493</v>
-      </c>
-      <c r="R34" s="356" t="s">
+      <c r="Q34" s="358"/>
+      <c r="R34" s="487"/>
+      <c r="S34" s="356" t="s">
+        <v>493</v>
+      </c>
+      <c r="T34" s="356" t="s">
         <v>255</v>
       </c>
-      <c r="S34" s="357" t="s">
-        <v>493</v>
-      </c>
-      <c r="T34" s="357" t="s">
+      <c r="U34" s="357" t="s">
+        <v>493</v>
+      </c>
+      <c r="V34" s="357" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="359" t="s">
         <v>493</v>
       </c>
@@ -10902,28 +11095,30 @@
       <c r="J35" s="360" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="360" t="s">
+      <c r="K35" s="360"/>
+      <c r="L35" s="360" t="s">
         <v>303</v>
       </c>
-      <c r="L35" s="360"/>
-      <c r="M35" s="545"/>
+      <c r="M35" s="360"/>
       <c r="N35" s="545"/>
-      <c r="O35" s="361"/>
+      <c r="O35" s="545"/>
       <c r="P35" s="361"/>
-      <c r="Q35" s="359" t="s">
-        <v>493</v>
-      </c>
-      <c r="R35" s="359" t="s">
+      <c r="Q35" s="361"/>
+      <c r="R35" s="487"/>
+      <c r="S35" s="359" t="s">
+        <v>493</v>
+      </c>
+      <c r="T35" s="359" t="s">
         <v>269</v>
       </c>
-      <c r="S35" s="360" t="s">
-        <v>493</v>
-      </c>
-      <c r="T35" s="360" t="s">
+      <c r="U35" s="360" t="s">
+        <v>493</v>
+      </c>
+      <c r="V35" s="360" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="362" t="s">
         <v>139</v>
       </c>
@@ -10952,30 +11147,32 @@
       <c r="J36" s="363" t="s">
         <v>278</v>
       </c>
-      <c r="K36" s="363" t="s">
+      <c r="K36" s="363"/>
+      <c r="L36" s="363" t="s">
         <v>300</v>
       </c>
-      <c r="L36" s="363">
+      <c r="M36" s="363">
         <v>302780</v>
       </c>
-      <c r="M36" s="545"/>
       <c r="N36" s="545"/>
-      <c r="O36" s="364"/>
+      <c r="O36" s="545"/>
       <c r="P36" s="364"/>
-      <c r="Q36" s="362" t="s">
-        <v>493</v>
-      </c>
-      <c r="R36" s="362" t="s">
+      <c r="Q36" s="364"/>
+      <c r="R36" s="487"/>
+      <c r="S36" s="362" t="s">
+        <v>493</v>
+      </c>
+      <c r="T36" s="362" t="s">
         <v>315</v>
       </c>
-      <c r="S36" s="363" t="s">
+      <c r="U36" s="363" t="s">
         <v>516</v>
       </c>
-      <c r="T36" s="363" t="s">
+      <c r="V36" s="363" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="365" t="s">
         <v>159</v>
       </c>
@@ -11004,30 +11201,32 @@
       <c r="J37" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="366" t="s">
+      <c r="K37" s="366"/>
+      <c r="L37" s="366" t="s">
         <v>300</v>
       </c>
-      <c r="L37" s="366">
+      <c r="M37" s="366">
         <v>302796</v>
       </c>
-      <c r="M37" s="544"/>
       <c r="N37" s="544"/>
-      <c r="O37" s="367"/>
+      <c r="O37" s="544"/>
       <c r="P37" s="367"/>
-      <c r="Q37" s="365" t="s">
-        <v>493</v>
-      </c>
-      <c r="R37" s="365" t="s">
+      <c r="Q37" s="367"/>
+      <c r="R37" s="472"/>
+      <c r="S37" s="365" t="s">
+        <v>493</v>
+      </c>
+      <c r="T37" s="365" t="s">
         <v>317</v>
       </c>
-      <c r="S37" s="366" t="s">
+      <c r="U37" s="366" t="s">
         <v>516</v>
       </c>
-      <c r="T37" s="366" t="s">
+      <c r="V37" s="366" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="368" t="s">
         <v>568</v>
       </c>
@@ -11056,30 +11255,32 @@
       <c r="J38" s="369" t="s">
         <v>279</v>
       </c>
-      <c r="K38" s="369" t="s">
+      <c r="K38" s="369"/>
+      <c r="L38" s="369" t="s">
         <v>300</v>
       </c>
-      <c r="L38" s="369">
+      <c r="M38" s="369">
         <v>302833</v>
       </c>
-      <c r="M38" s="545"/>
       <c r="N38" s="545"/>
-      <c r="O38" s="370"/>
+      <c r="O38" s="545"/>
       <c r="P38" s="370"/>
-      <c r="Q38" s="368" t="s">
+      <c r="Q38" s="370"/>
+      <c r="R38" s="487"/>
+      <c r="S38" s="368" t="s">
         <v>138</v>
       </c>
-      <c r="R38" s="368" t="s">
-        <v>493</v>
-      </c>
-      <c r="S38" s="369" t="s">
-        <v>493</v>
-      </c>
-      <c r="T38" s="369" t="s">
+      <c r="T38" s="368" t="s">
+        <v>493</v>
+      </c>
+      <c r="U38" s="369" t="s">
+        <v>493</v>
+      </c>
+      <c r="V38" s="369" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="371" t="s">
         <v>493</v>
       </c>
@@ -11108,30 +11309,32 @@
       <c r="J39" s="372" t="s">
         <v>280</v>
       </c>
-      <c r="K39" s="372" t="s">
+      <c r="K39" s="372"/>
+      <c r="L39" s="372" t="s">
         <v>300</v>
       </c>
-      <c r="L39" s="372">
+      <c r="M39" s="372">
         <v>302838</v>
       </c>
-      <c r="M39" s="545"/>
       <c r="N39" s="545"/>
-      <c r="O39" s="373"/>
+      <c r="O39" s="545"/>
       <c r="P39" s="373"/>
-      <c r="Q39" s="371" t="s">
+      <c r="Q39" s="373"/>
+      <c r="R39" s="487"/>
+      <c r="S39" s="371" t="s">
         <v>138</v>
       </c>
-      <c r="R39" s="371" t="s">
+      <c r="T39" s="371" t="s">
         <v>318</v>
       </c>
-      <c r="S39" s="372" t="s">
-        <v>493</v>
-      </c>
-      <c r="T39" s="372" t="s">
+      <c r="U39" s="372" t="s">
+        <v>493</v>
+      </c>
+      <c r="V39" s="372" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="374" t="s">
         <v>493</v>
       </c>
@@ -11160,30 +11363,32 @@
       <c r="J40" s="375" t="s">
         <v>283</v>
       </c>
-      <c r="K40" s="375" t="s">
+      <c r="K40" s="375"/>
+      <c r="L40" s="375" t="s">
         <v>316</v>
       </c>
-      <c r="L40" s="375">
+      <c r="M40" s="375">
         <v>302845</v>
       </c>
-      <c r="M40" s="544"/>
       <c r="N40" s="544"/>
-      <c r="O40" s="376"/>
+      <c r="O40" s="544"/>
       <c r="P40" s="376"/>
-      <c r="Q40" s="374" t="s">
+      <c r="Q40" s="376"/>
+      <c r="R40" s="472"/>
+      <c r="S40" s="374" t="s">
         <v>138</v>
       </c>
-      <c r="R40" s="374" t="s">
+      <c r="T40" s="374" t="s">
         <v>315</v>
       </c>
-      <c r="S40" s="375" t="s">
-        <v>493</v>
-      </c>
-      <c r="T40" s="375" t="s">
+      <c r="U40" s="375" t="s">
+        <v>493</v>
+      </c>
+      <c r="V40" s="375" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="377" t="s">
         <v>183</v>
       </c>
@@ -11212,30 +11417,32 @@
       <c r="J41" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="378" t="s">
+      <c r="K41" s="378"/>
+      <c r="L41" s="378" t="s">
         <v>303</v>
       </c>
-      <c r="L41" s="378">
+      <c r="M41" s="378">
         <v>307395</v>
       </c>
-      <c r="M41" s="545"/>
       <c r="N41" s="545"/>
-      <c r="O41" s="379"/>
+      <c r="O41" s="545"/>
       <c r="P41" s="379"/>
-      <c r="Q41" s="377" t="s">
+      <c r="Q41" s="379"/>
+      <c r="R41" s="487"/>
+      <c r="S41" s="377" t="s">
         <v>138</v>
       </c>
-      <c r="R41" s="377" t="s">
-        <v>493</v>
-      </c>
-      <c r="S41" s="378" t="s">
-        <v>493</v>
-      </c>
-      <c r="T41" s="378" t="s">
+      <c r="T41" s="377" t="s">
+        <v>493</v>
+      </c>
+      <c r="U41" s="378" t="s">
+        <v>493</v>
+      </c>
+      <c r="V41" s="378" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="380" t="s">
         <v>183</v>
       </c>
@@ -11264,30 +11471,32 @@
       <c r="J42" s="381" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="381" t="s">
+      <c r="K42" s="381"/>
+      <c r="L42" s="381" t="s">
         <v>303</v>
       </c>
-      <c r="L42" s="381">
+      <c r="M42" s="381">
         <v>307396</v>
       </c>
-      <c r="M42" s="544"/>
       <c r="N42" s="544"/>
-      <c r="O42" s="382"/>
+      <c r="O42" s="544"/>
       <c r="P42" s="382"/>
-      <c r="Q42" s="380" t="s">
+      <c r="Q42" s="382"/>
+      <c r="R42" s="472"/>
+      <c r="S42" s="380" t="s">
         <v>138</v>
       </c>
-      <c r="R42" s="380" t="s">
-        <v>493</v>
-      </c>
-      <c r="S42" s="381" t="s">
+      <c r="T42" s="380" t="s">
+        <v>493</v>
+      </c>
+      <c r="U42" s="381" t="s">
         <v>516</v>
       </c>
-      <c r="T42" s="381" t="s">
+      <c r="V42" s="381" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="383" t="s">
         <v>139</v>
       </c>
@@ -11316,30 +11525,32 @@
       <c r="J43" s="384" t="s">
         <v>338</v>
       </c>
-      <c r="K43" s="384" t="s">
+      <c r="K43" s="384"/>
+      <c r="L43" s="384" t="s">
         <v>316</v>
       </c>
-      <c r="L43" s="384">
+      <c r="M43" s="384">
         <v>307398</v>
       </c>
-      <c r="M43" s="544"/>
       <c r="N43" s="544"/>
-      <c r="O43" s="385"/>
+      <c r="O43" s="544"/>
       <c r="P43" s="385"/>
-      <c r="Q43" s="383" t="s">
+      <c r="Q43" s="385"/>
+      <c r="R43" s="472"/>
+      <c r="S43" s="383" t="s">
         <v>138</v>
       </c>
-      <c r="R43" s="383" t="s">
-        <v>493</v>
-      </c>
-      <c r="S43" s="384" t="s">
-        <v>493</v>
-      </c>
-      <c r="T43" s="384" t="s">
+      <c r="T43" s="383" t="s">
+        <v>493</v>
+      </c>
+      <c r="U43" s="384" t="s">
+        <v>493</v>
+      </c>
+      <c r="V43" s="384" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="386" t="s">
         <v>139</v>
       </c>
@@ -11368,30 +11579,32 @@
       <c r="J44" s="387" t="s">
         <v>337</v>
       </c>
-      <c r="K44" s="387" t="s">
+      <c r="K44" s="387"/>
+      <c r="L44" s="387" t="s">
         <v>316</v>
       </c>
-      <c r="L44" s="387">
+      <c r="M44" s="387">
         <v>307400</v>
       </c>
-      <c r="M44" s="544"/>
       <c r="N44" s="544"/>
-      <c r="O44" s="388"/>
+      <c r="O44" s="544"/>
       <c r="P44" s="388"/>
-      <c r="Q44" s="386" t="s">
+      <c r="Q44" s="388"/>
+      <c r="R44" s="472"/>
+      <c r="S44" s="386" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="386" t="s">
-        <v>493</v>
-      </c>
-      <c r="S44" s="387" t="s">
-        <v>493</v>
-      </c>
-      <c r="T44" s="387" t="s">
+      <c r="T44" s="386" t="s">
+        <v>493</v>
+      </c>
+      <c r="U44" s="387" t="s">
+        <v>493</v>
+      </c>
+      <c r="V44" s="387" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="389" t="s">
         <v>493</v>
       </c>
@@ -11420,30 +11633,32 @@
       <c r="J45" s="390" t="s">
         <v>336</v>
       </c>
-      <c r="K45" s="390" t="s">
+      <c r="K45" s="390"/>
+      <c r="L45" s="390" t="s">
         <v>316</v>
       </c>
-      <c r="L45" s="390">
+      <c r="M45" s="390">
         <v>307402</v>
       </c>
-      <c r="M45" s="544"/>
       <c r="N45" s="544"/>
-      <c r="O45" s="391"/>
+      <c r="O45" s="544"/>
       <c r="P45" s="391"/>
-      <c r="Q45" s="389" t="s">
+      <c r="Q45" s="391"/>
+      <c r="R45" s="472"/>
+      <c r="S45" s="389" t="s">
         <v>138</v>
       </c>
-      <c r="R45" s="389" t="s">
-        <v>493</v>
-      </c>
-      <c r="S45" s="390" t="s">
-        <v>493</v>
-      </c>
-      <c r="T45" s="390" t="s">
+      <c r="T45" s="389" t="s">
+        <v>493</v>
+      </c>
+      <c r="U45" s="390" t="s">
+        <v>493</v>
+      </c>
+      <c r="V45" s="390" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="392" t="s">
         <v>493</v>
       </c>
@@ -11472,30 +11687,32 @@
       <c r="J46" s="393" t="s">
         <v>335</v>
       </c>
-      <c r="K46" s="393" t="s">
+      <c r="K46" s="393"/>
+      <c r="L46" s="393" t="s">
         <v>303</v>
       </c>
-      <c r="L46" s="393">
+      <c r="M46" s="393">
         <v>307405</v>
       </c>
-      <c r="M46" s="544"/>
       <c r="N46" s="544"/>
-      <c r="O46" s="394"/>
+      <c r="O46" s="544"/>
       <c r="P46" s="394"/>
-      <c r="Q46" s="392" t="s">
+      <c r="Q46" s="394"/>
+      <c r="R46" s="472"/>
+      <c r="S46" s="392" t="s">
         <v>138</v>
       </c>
-      <c r="R46" s="392" t="s">
-        <v>493</v>
-      </c>
-      <c r="S46" s="393" t="s">
+      <c r="T46" s="392" t="s">
+        <v>493</v>
+      </c>
+      <c r="U46" s="393" t="s">
         <v>516</v>
       </c>
-      <c r="T46" s="393" t="s">
+      <c r="V46" s="393" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="395" t="s">
         <v>493</v>
       </c>
@@ -11524,30 +11741,32 @@
       <c r="J47" s="396" t="s">
         <v>334</v>
       </c>
-      <c r="K47" s="396" t="s">
+      <c r="K47" s="396"/>
+      <c r="L47" s="396" t="s">
         <v>321</v>
       </c>
-      <c r="L47" s="396">
+      <c r="M47" s="396">
         <v>307407</v>
       </c>
-      <c r="M47" s="544"/>
       <c r="N47" s="544"/>
-      <c r="O47" s="397"/>
+      <c r="O47" s="544"/>
       <c r="P47" s="397"/>
-      <c r="Q47" s="395" t="s">
+      <c r="Q47" s="397"/>
+      <c r="R47" s="472"/>
+      <c r="S47" s="395" t="s">
         <v>138</v>
       </c>
-      <c r="R47" s="395" t="s">
-        <v>493</v>
-      </c>
-      <c r="S47" s="396" t="s">
-        <v>493</v>
-      </c>
-      <c r="T47" s="396" t="s">
+      <c r="T47" s="395" t="s">
+        <v>493</v>
+      </c>
+      <c r="U47" s="396" t="s">
+        <v>493</v>
+      </c>
+      <c r="V47" s="396" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="398" t="s">
         <v>159</v>
       </c>
@@ -11576,30 +11795,32 @@
       <c r="J48" s="399" t="s">
         <v>333</v>
       </c>
-      <c r="K48" s="399" t="s">
+      <c r="K48" s="399"/>
+      <c r="L48" s="399" t="s">
         <v>316</v>
       </c>
-      <c r="L48" s="399">
+      <c r="M48" s="399">
         <v>307408</v>
       </c>
-      <c r="M48" s="545"/>
       <c r="N48" s="545"/>
-      <c r="O48" s="400"/>
+      <c r="O48" s="545"/>
       <c r="P48" s="400"/>
-      <c r="Q48" s="398" t="s">
+      <c r="Q48" s="400"/>
+      <c r="R48" s="487"/>
+      <c r="S48" s="398" t="s">
         <v>138</v>
       </c>
-      <c r="R48" s="398" t="s">
-        <v>493</v>
-      </c>
-      <c r="S48" s="399" t="s">
-        <v>493</v>
-      </c>
-      <c r="T48" s="399" t="s">
+      <c r="T48" s="398" t="s">
+        <v>493</v>
+      </c>
+      <c r="U48" s="399" t="s">
+        <v>493</v>
+      </c>
+      <c r="V48" s="399" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="401" t="s">
         <v>367</v>
       </c>
@@ -11628,30 +11849,32 @@
       <c r="J49" s="402" t="s">
         <v>331</v>
       </c>
-      <c r="K49" s="402" t="s">
+      <c r="K49" s="402"/>
+      <c r="L49" s="402" t="s">
         <v>321</v>
       </c>
-      <c r="L49" s="402">
+      <c r="M49" s="402">
         <v>307527</v>
       </c>
-      <c r="M49" s="545"/>
       <c r="N49" s="545"/>
-      <c r="O49" s="403"/>
+      <c r="O49" s="545"/>
       <c r="P49" s="403"/>
-      <c r="Q49" s="401" t="s">
+      <c r="Q49" s="403"/>
+      <c r="R49" s="487"/>
+      <c r="S49" s="401" t="s">
         <v>138</v>
       </c>
-      <c r="R49" s="401" t="s">
-        <v>493</v>
-      </c>
-      <c r="S49" s="402" t="s">
-        <v>493</v>
-      </c>
-      <c r="T49" s="402" t="s">
+      <c r="T49" s="401" t="s">
+        <v>493</v>
+      </c>
+      <c r="U49" s="402" t="s">
+        <v>493</v>
+      </c>
+      <c r="V49" s="402" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="404" t="s">
         <v>183</v>
       </c>
@@ -11680,30 +11903,32 @@
       <c r="J50" s="405" t="s">
         <v>329</v>
       </c>
-      <c r="K50" s="405" t="s">
+      <c r="K50" s="405"/>
+      <c r="L50" s="405" t="s">
         <v>316</v>
       </c>
-      <c r="L50" s="405">
+      <c r="M50" s="405">
         <v>307535</v>
       </c>
-      <c r="M50" s="545"/>
       <c r="N50" s="545"/>
-      <c r="O50" s="406"/>
+      <c r="O50" s="545"/>
       <c r="P50" s="406"/>
-      <c r="Q50" s="404" t="s">
+      <c r="Q50" s="406"/>
+      <c r="R50" s="487"/>
+      <c r="S50" s="404" t="s">
         <v>138</v>
       </c>
-      <c r="R50" s="404" t="s">
-        <v>493</v>
-      </c>
-      <c r="S50" s="405" t="s">
-        <v>493</v>
-      </c>
-      <c r="T50" s="405" t="s">
+      <c r="T50" s="404" t="s">
+        <v>493</v>
+      </c>
+      <c r="U50" s="405" t="s">
+        <v>493</v>
+      </c>
+      <c r="V50" s="405" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="407" t="s">
         <v>134</v>
       </c>
@@ -11732,28 +11957,30 @@
       <c r="J51" s="408" t="s">
         <v>328</v>
       </c>
-      <c r="K51" s="408" t="s">
+      <c r="K51" s="408"/>
+      <c r="L51" s="408" t="s">
         <v>321</v>
       </c>
-      <c r="L51" s="408"/>
-      <c r="M51" s="545"/>
+      <c r="M51" s="408"/>
       <c r="N51" s="545"/>
-      <c r="O51" s="409"/>
+      <c r="O51" s="545"/>
       <c r="P51" s="409"/>
-      <c r="Q51" s="407" t="s">
-        <v>493</v>
-      </c>
-      <c r="R51" s="407" t="s">
+      <c r="Q51" s="409"/>
+      <c r="R51" s="487"/>
+      <c r="S51" s="407" t="s">
+        <v>493</v>
+      </c>
+      <c r="T51" s="407" t="s">
         <v>355</v>
       </c>
-      <c r="S51" s="408" t="s">
+      <c r="U51" s="408" t="s">
         <v>516</v>
       </c>
-      <c r="T51" s="408" t="s">
+      <c r="V51" s="408" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="410" t="s">
         <v>139</v>
       </c>
@@ -11782,30 +12009,32 @@
       <c r="J52" s="411" t="s">
         <v>327</v>
       </c>
-      <c r="K52" s="411" t="s">
+      <c r="K52" s="411"/>
+      <c r="L52" s="411" t="s">
         <v>316</v>
       </c>
-      <c r="L52" s="411">
+      <c r="M52" s="411">
         <v>307542</v>
       </c>
-      <c r="M52" s="544"/>
       <c r="N52" s="544"/>
-      <c r="O52" s="412"/>
+      <c r="O52" s="544"/>
       <c r="P52" s="412"/>
-      <c r="Q52" s="410" t="s">
+      <c r="Q52" s="412"/>
+      <c r="R52" s="472"/>
+      <c r="S52" s="410" t="s">
         <v>138</v>
       </c>
-      <c r="R52" s="410" t="s">
-        <v>493</v>
-      </c>
-      <c r="S52" s="411" t="s">
-        <v>493</v>
-      </c>
-      <c r="T52" s="411" t="s">
+      <c r="T52" s="410" t="s">
+        <v>493</v>
+      </c>
+      <c r="U52" s="411" t="s">
+        <v>493</v>
+      </c>
+      <c r="V52" s="411" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="413" t="s">
         <v>493</v>
       </c>
@@ -11834,28 +12063,30 @@
       <c r="J53" s="414" t="s">
         <v>378</v>
       </c>
-      <c r="K53" s="414" t="s">
+      <c r="K53" s="414"/>
+      <c r="L53" s="414" t="s">
         <v>303</v>
       </c>
-      <c r="L53" s="414"/>
-      <c r="M53" s="545"/>
+      <c r="M53" s="414"/>
       <c r="N53" s="545"/>
-      <c r="O53" s="415"/>
+      <c r="O53" s="545"/>
       <c r="P53" s="415"/>
-      <c r="Q53" s="413" t="s">
-        <v>493</v>
-      </c>
-      <c r="R53" s="413" t="s">
+      <c r="Q53" s="415"/>
+      <c r="R53" s="487"/>
+      <c r="S53" s="413" t="s">
+        <v>493</v>
+      </c>
+      <c r="T53" s="413" t="s">
         <v>380</v>
       </c>
-      <c r="S53" s="414" t="s">
-        <v>493</v>
-      </c>
-      <c r="T53" s="414" t="s">
+      <c r="U53" s="414" t="s">
+        <v>493</v>
+      </c>
+      <c r="V53" s="414" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="416" t="s">
         <v>493</v>
       </c>
@@ -11884,28 +12115,30 @@
       <c r="J54" s="417" t="s">
         <v>381</v>
       </c>
-      <c r="K54" s="417" t="s">
+      <c r="K54" s="417"/>
+      <c r="L54" s="417" t="s">
         <v>321</v>
       </c>
-      <c r="L54" s="417"/>
-      <c r="M54" s="545"/>
+      <c r="M54" s="417"/>
       <c r="N54" s="545"/>
-      <c r="O54" s="418"/>
+      <c r="O54" s="545"/>
       <c r="P54" s="418"/>
-      <c r="Q54" s="416" t="s">
-        <v>493</v>
-      </c>
-      <c r="R54" s="416" t="s">
+      <c r="Q54" s="418"/>
+      <c r="R54" s="487"/>
+      <c r="S54" s="416" t="s">
+        <v>493</v>
+      </c>
+      <c r="T54" s="416" t="s">
         <v>382</v>
       </c>
-      <c r="S54" s="417" t="s">
-        <v>493</v>
-      </c>
-      <c r="T54" s="417" t="s">
+      <c r="U54" s="417" t="s">
+        <v>493</v>
+      </c>
+      <c r="V54" s="417" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="419" t="s">
         <v>183</v>
       </c>
@@ -11934,28 +12167,30 @@
       <c r="J55" s="420" t="s">
         <v>463</v>
       </c>
-      <c r="K55" s="420" t="s">
+      <c r="K55" s="420"/>
+      <c r="L55" s="420" t="s">
         <v>321</v>
       </c>
-      <c r="L55" s="420"/>
-      <c r="M55" s="545"/>
+      <c r="M55" s="420"/>
       <c r="N55" s="545"/>
-      <c r="O55" s="421"/>
+      <c r="O55" s="545"/>
       <c r="P55" s="421"/>
-      <c r="Q55" s="419" t="s">
-        <v>493</v>
-      </c>
-      <c r="R55" s="419" t="s">
-        <v>493</v>
-      </c>
-      <c r="S55" s="420" t="s">
-        <v>493</v>
-      </c>
-      <c r="T55" s="420" t="s">
+      <c r="Q55" s="421"/>
+      <c r="R55" s="487"/>
+      <c r="S55" s="419" t="s">
+        <v>493</v>
+      </c>
+      <c r="T55" s="419" t="s">
+        <v>493</v>
+      </c>
+      <c r="U55" s="420" t="s">
+        <v>493</v>
+      </c>
+      <c r="V55" s="420" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="422" t="s">
         <v>174</v>
       </c>
@@ -11984,30 +12219,32 @@
       <c r="J56" s="423" t="s">
         <v>472</v>
       </c>
-      <c r="K56" s="423" t="s">
+      <c r="K56" s="423"/>
+      <c r="L56" s="423" t="s">
         <v>316</v>
       </c>
-      <c r="L56" s="423">
+      <c r="M56" s="423">
         <v>309193</v>
       </c>
-      <c r="M56" s="545"/>
       <c r="N56" s="545"/>
-      <c r="O56" s="424"/>
+      <c r="O56" s="545"/>
       <c r="P56" s="424"/>
-      <c r="Q56" s="422" t="s">
+      <c r="Q56" s="424"/>
+      <c r="R56" s="487"/>
+      <c r="S56" s="422" t="s">
         <v>138</v>
       </c>
-      <c r="R56" s="422" t="s">
-        <v>493</v>
-      </c>
-      <c r="S56" s="423" t="s">
-        <v>493</v>
-      </c>
-      <c r="T56" s="423" t="s">
+      <c r="T56" s="422" t="s">
+        <v>493</v>
+      </c>
+      <c r="U56" s="423" t="s">
+        <v>493</v>
+      </c>
+      <c r="V56" s="423" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="425" t="s">
         <v>243</v>
       </c>
@@ -12036,28 +12273,30 @@
       <c r="J57" s="426" t="s">
         <v>479</v>
       </c>
-      <c r="K57" s="426" t="s">
+      <c r="K57" s="426"/>
+      <c r="L57" s="426" t="s">
         <v>393</v>
       </c>
-      <c r="L57" s="426"/>
-      <c r="M57" s="544"/>
+      <c r="M57" s="426"/>
       <c r="N57" s="544"/>
-      <c r="O57" s="427"/>
+      <c r="O57" s="544"/>
       <c r="P57" s="427"/>
-      <c r="Q57" s="425" t="s">
-        <v>493</v>
-      </c>
-      <c r="R57" s="425" t="s">
-        <v>493</v>
-      </c>
-      <c r="S57" s="426" t="s">
+      <c r="Q57" s="427"/>
+      <c r="R57" s="472"/>
+      <c r="S57" s="425" t="s">
+        <v>493</v>
+      </c>
+      <c r="T57" s="425" t="s">
+        <v>493</v>
+      </c>
+      <c r="U57" s="426" t="s">
         <v>516</v>
       </c>
-      <c r="T57" s="426" t="s">
+      <c r="V57" s="426" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="428" t="s">
         <v>159</v>
       </c>
@@ -12086,28 +12325,30 @@
       <c r="J58" s="429" t="s">
         <v>481</v>
       </c>
-      <c r="K58" s="429" t="s">
+      <c r="K58" s="429"/>
+      <c r="L58" s="429" t="s">
         <v>393</v>
       </c>
-      <c r="L58" s="429"/>
-      <c r="M58" s="545"/>
+      <c r="M58" s="429"/>
       <c r="N58" s="545"/>
-      <c r="O58" s="430"/>
+      <c r="O58" s="545"/>
       <c r="P58" s="430"/>
-      <c r="Q58" s="428" t="s">
-        <v>493</v>
-      </c>
-      <c r="R58" s="428" t="s">
-        <v>493</v>
-      </c>
-      <c r="S58" s="429" t="s">
-        <v>493</v>
-      </c>
-      <c r="T58" s="429" t="s">
+      <c r="Q58" s="430"/>
+      <c r="R58" s="487"/>
+      <c r="S58" s="428" t="s">
+        <v>493</v>
+      </c>
+      <c r="T58" s="428" t="s">
+        <v>493</v>
+      </c>
+      <c r="U58" s="429" t="s">
+        <v>493</v>
+      </c>
+      <c r="V58" s="429" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="431" t="s">
         <v>243</v>
       </c>
@@ -12136,28 +12377,30 @@
       <c r="J59" s="432" t="s">
         <v>479</v>
       </c>
-      <c r="K59" s="432" t="s">
+      <c r="K59" s="432"/>
+      <c r="L59" s="432" t="s">
         <v>393</v>
       </c>
-      <c r="L59" s="432"/>
-      <c r="M59" s="544"/>
+      <c r="M59" s="432"/>
       <c r="N59" s="544"/>
-      <c r="O59" s="433"/>
+      <c r="O59" s="544"/>
       <c r="P59" s="433"/>
-      <c r="Q59" s="431" t="s">
-        <v>493</v>
-      </c>
-      <c r="R59" s="431" t="s">
-        <v>493</v>
-      </c>
-      <c r="S59" s="432" t="s">
+      <c r="Q59" s="433"/>
+      <c r="R59" s="472"/>
+      <c r="S59" s="431" t="s">
+        <v>493</v>
+      </c>
+      <c r="T59" s="431" t="s">
+        <v>493</v>
+      </c>
+      <c r="U59" s="432" t="s">
         <v>516</v>
       </c>
-      <c r="T59" s="432" t="s">
+      <c r="V59" s="432" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="434" t="s">
         <v>367</v>
       </c>
@@ -12186,28 +12429,30 @@
       <c r="J60" s="435" t="s">
         <v>485</v>
       </c>
-      <c r="K60" s="435" t="s">
+      <c r="K60" s="435"/>
+      <c r="L60" s="435" t="s">
         <v>300</v>
       </c>
-      <c r="L60" s="435"/>
-      <c r="M60" s="544"/>
+      <c r="M60" s="435"/>
       <c r="N60" s="544"/>
-      <c r="O60" s="436"/>
+      <c r="O60" s="544"/>
       <c r="P60" s="436"/>
-      <c r="Q60" s="434" t="s">
-        <v>493</v>
-      </c>
-      <c r="R60" s="434" t="s">
-        <v>493</v>
-      </c>
-      <c r="S60" s="435" t="s">
-        <v>493</v>
-      </c>
-      <c r="T60" s="435" t="s">
+      <c r="Q60" s="436"/>
+      <c r="R60" s="472"/>
+      <c r="S60" s="434" t="s">
+        <v>493</v>
+      </c>
+      <c r="T60" s="434" t="s">
+        <v>493</v>
+      </c>
+      <c r="U60" s="435" t="s">
+        <v>493</v>
+      </c>
+      <c r="V60" s="435" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="437" t="s">
         <v>183</v>
       </c>
@@ -12236,28 +12481,30 @@
       <c r="J61" s="438" t="s">
         <v>486</v>
       </c>
-      <c r="K61" s="438" t="s">
+      <c r="K61" s="438"/>
+      <c r="L61" s="438" t="s">
         <v>300</v>
       </c>
-      <c r="L61" s="438"/>
-      <c r="M61" s="545"/>
+      <c r="M61" s="438"/>
       <c r="N61" s="545"/>
-      <c r="O61" s="439"/>
+      <c r="O61" s="545"/>
       <c r="P61" s="439"/>
-      <c r="Q61" s="437" t="s">
-        <v>493</v>
-      </c>
-      <c r="R61" s="437" t="s">
-        <v>493</v>
-      </c>
-      <c r="S61" s="438" t="s">
-        <v>493</v>
-      </c>
-      <c r="T61" s="438" t="s">
+      <c r="Q61" s="439"/>
+      <c r="R61" s="487"/>
+      <c r="S61" s="437" t="s">
+        <v>493</v>
+      </c>
+      <c r="T61" s="437" t="s">
+        <v>493</v>
+      </c>
+      <c r="U61" s="438" t="s">
+        <v>493</v>
+      </c>
+      <c r="V61" s="438" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="440" t="s">
         <v>139</v>
       </c>
@@ -12286,30 +12533,32 @@
       <c r="J62" s="441" t="s">
         <v>487</v>
       </c>
-      <c r="K62" s="441" t="s">
+      <c r="K62" s="441"/>
+      <c r="L62" s="441" t="s">
         <v>316</v>
       </c>
-      <c r="L62" s="441">
+      <c r="M62" s="441">
         <v>310773</v>
       </c>
-      <c r="M62" s="544"/>
       <c r="N62" s="544"/>
-      <c r="O62" s="442"/>
+      <c r="O62" s="544"/>
       <c r="P62" s="442"/>
-      <c r="Q62" s="440" t="s">
+      <c r="Q62" s="442"/>
+      <c r="R62" s="472"/>
+      <c r="S62" s="440" t="s">
         <v>138</v>
       </c>
-      <c r="R62" s="440" t="s">
-        <v>493</v>
-      </c>
-      <c r="S62" s="441" t="s">
-        <v>493</v>
-      </c>
-      <c r="T62" s="441" t="s">
+      <c r="T62" s="440" t="s">
+        <v>493</v>
+      </c>
+      <c r="U62" s="441" t="s">
+        <v>493</v>
+      </c>
+      <c r="V62" s="441" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="443" t="s">
         <v>139</v>
       </c>
@@ -12338,30 +12587,32 @@
       <c r="J63" s="444" t="s">
         <v>489</v>
       </c>
-      <c r="K63" s="444" t="s">
+      <c r="K63" s="444"/>
+      <c r="L63" s="444" t="s">
         <v>321</v>
       </c>
-      <c r="L63" s="444">
+      <c r="M63" s="444">
         <v>311661</v>
       </c>
-      <c r="M63" s="544"/>
       <c r="N63" s="544"/>
-      <c r="O63" s="445"/>
+      <c r="O63" s="544"/>
       <c r="P63" s="445"/>
-      <c r="Q63" s="443" t="s">
+      <c r="Q63" s="445"/>
+      <c r="R63" s="472"/>
+      <c r="S63" s="443" t="s">
         <v>138</v>
       </c>
-      <c r="R63" s="443" t="s">
-        <v>493</v>
-      </c>
-      <c r="S63" s="444" t="s">
-        <v>493</v>
-      </c>
-      <c r="T63" s="444" t="s">
+      <c r="T63" s="443" t="s">
+        <v>493</v>
+      </c>
+      <c r="U63" s="444" t="s">
+        <v>493</v>
+      </c>
+      <c r="V63" s="444" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="446" t="s">
         <v>493</v>
       </c>
@@ -12390,28 +12641,30 @@
       <c r="J64" s="447" t="s">
         <v>490</v>
       </c>
-      <c r="K64" s="447" t="s">
+      <c r="K64" s="447"/>
+      <c r="L64" s="447" t="s">
         <v>316</v>
       </c>
-      <c r="L64" s="447"/>
-      <c r="M64" s="545"/>
+      <c r="M64" s="447"/>
       <c r="N64" s="545"/>
-      <c r="O64" s="448"/>
+      <c r="O64" s="545"/>
       <c r="P64" s="448"/>
-      <c r="Q64" s="446" t="s">
-        <v>493</v>
-      </c>
-      <c r="R64" s="446" t="s">
+      <c r="Q64" s="448"/>
+      <c r="R64" s="487"/>
+      <c r="S64" s="446" t="s">
+        <v>493</v>
+      </c>
+      <c r="T64" s="446" t="s">
         <v>315</v>
       </c>
-      <c r="S64" s="447" t="s">
-        <v>493</v>
-      </c>
-      <c r="T64" s="447" t="s">
+      <c r="U64" s="447" t="s">
+        <v>493</v>
+      </c>
+      <c r="V64" s="447" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="449" t="s">
         <v>139</v>
       </c>
@@ -12440,30 +12693,32 @@
       <c r="J65" s="450" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="450" t="s">
+      <c r="K65" s="450"/>
+      <c r="L65" s="450" t="s">
         <v>300</v>
       </c>
-      <c r="L65" s="450">
+      <c r="M65" s="450">
         <v>310726</v>
       </c>
-      <c r="M65" s="545"/>
       <c r="N65" s="545"/>
-      <c r="O65" s="451"/>
+      <c r="O65" s="545"/>
       <c r="P65" s="451"/>
-      <c r="Q65" s="449" t="s">
-        <v>493</v>
-      </c>
-      <c r="R65" s="449" t="s">
+      <c r="Q65" s="451"/>
+      <c r="R65" s="487"/>
+      <c r="S65" s="449" t="s">
+        <v>493</v>
+      </c>
+      <c r="T65" s="449" t="s">
         <v>529</v>
       </c>
-      <c r="S65" s="450" t="s">
-        <v>493</v>
-      </c>
-      <c r="T65" s="450" t="s">
+      <c r="U65" s="450" t="s">
+        <v>493</v>
+      </c>
+      <c r="V65" s="450" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="452" t="s">
         <v>367</v>
       </c>
@@ -12492,28 +12747,30 @@
       <c r="J66" s="453" t="s">
         <v>271</v>
       </c>
-      <c r="K66" s="453" t="s">
+      <c r="K66" s="453"/>
+      <c r="L66" s="453" t="s">
         <v>393</v>
       </c>
-      <c r="L66" s="453"/>
-      <c r="M66" s="545"/>
+      <c r="M66" s="453"/>
       <c r="N66" s="545"/>
-      <c r="O66" s="454"/>
+      <c r="O66" s="545"/>
       <c r="P66" s="454"/>
-      <c r="Q66" s="452" t="s">
-        <v>493</v>
-      </c>
-      <c r="R66" s="452" t="s">
+      <c r="Q66" s="454"/>
+      <c r="R66" s="487"/>
+      <c r="S66" s="452" t="s">
+        <v>493</v>
+      </c>
+      <c r="T66" s="452" t="s">
         <v>315</v>
       </c>
-      <c r="S66" s="453" t="s">
-        <v>493</v>
-      </c>
-      <c r="T66" s="453" t="s">
+      <c r="U66" s="453" t="s">
+        <v>493</v>
+      </c>
+      <c r="V66" s="453" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="455" t="s">
         <v>139</v>
       </c>
@@ -12542,28 +12799,30 @@
       <c r="J67" s="456" t="s">
         <v>121</v>
       </c>
-      <c r="K67" s="456" t="s">
+      <c r="K67" s="456"/>
+      <c r="L67" s="456" t="s">
         <v>393</v>
       </c>
-      <c r="L67" s="456"/>
-      <c r="M67" s="545"/>
+      <c r="M67" s="456"/>
       <c r="N67" s="545"/>
-      <c r="O67" s="457"/>
+      <c r="O67" s="545"/>
       <c r="P67" s="457"/>
-      <c r="Q67" s="455" t="s">
-        <v>493</v>
-      </c>
-      <c r="R67" s="455" t="s">
+      <c r="Q67" s="457"/>
+      <c r="R67" s="487"/>
+      <c r="S67" s="455" t="s">
+        <v>493</v>
+      </c>
+      <c r="T67" s="455" t="s">
         <v>315</v>
       </c>
-      <c r="S67" s="456" t="s">
-        <v>493</v>
-      </c>
-      <c r="T67" s="456" t="s">
+      <c r="U67" s="456" t="s">
+        <v>493</v>
+      </c>
+      <c r="V67" s="456" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="458" t="s">
         <v>183</v>
       </c>
@@ -12592,28 +12851,30 @@
       <c r="J68" s="459" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="459" t="s">
+      <c r="K68" s="459"/>
+      <c r="L68" s="459" t="s">
         <v>300</v>
       </c>
-      <c r="L68" s="459"/>
-      <c r="M68" s="545"/>
+      <c r="M68" s="459"/>
       <c r="N68" s="545"/>
-      <c r="O68" s="460"/>
+      <c r="O68" s="545"/>
       <c r="P68" s="460"/>
-      <c r="Q68" s="458" t="s">
-        <v>493</v>
-      </c>
-      <c r="R68" s="458" t="s">
+      <c r="Q68" s="460"/>
+      <c r="R68" s="487"/>
+      <c r="S68" s="458" t="s">
+        <v>493</v>
+      </c>
+      <c r="T68" s="458" t="s">
         <v>315</v>
       </c>
-      <c r="S68" s="459" t="s">
-        <v>493</v>
-      </c>
-      <c r="T68" s="459" t="s">
+      <c r="U68" s="459" t="s">
+        <v>493</v>
+      </c>
+      <c r="V68" s="459" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="461" t="s">
         <v>159</v>
       </c>
@@ -12642,30 +12903,32 @@
       <c r="J69" s="462" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="462" t="s">
+      <c r="K69" s="462"/>
+      <c r="L69" s="462" t="s">
         <v>303</v>
       </c>
-      <c r="L69" s="462">
+      <c r="M69" s="462">
         <v>292625</v>
       </c>
-      <c r="M69" s="544"/>
       <c r="N69" s="544"/>
-      <c r="O69" s="463"/>
+      <c r="O69" s="544"/>
       <c r="P69" s="463"/>
-      <c r="Q69" s="461" t="s">
-        <v>493</v>
-      </c>
-      <c r="R69" s="461" t="s">
+      <c r="Q69" s="463"/>
+      <c r="R69" s="472"/>
+      <c r="S69" s="461" t="s">
+        <v>493</v>
+      </c>
+      <c r="T69" s="461" t="s">
         <v>531</v>
       </c>
-      <c r="S69" s="462" t="s">
+      <c r="U69" s="462" t="s">
         <v>516</v>
       </c>
-      <c r="T69" s="462" t="s">
+      <c r="V69" s="462" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="464" t="s">
         <v>183</v>
       </c>
@@ -12694,28 +12957,30 @@
       <c r="J70" s="465" t="s">
         <v>281</v>
       </c>
-      <c r="K70" s="465" t="s">
+      <c r="K70" s="465"/>
+      <c r="L70" s="465" t="s">
         <v>393</v>
       </c>
-      <c r="L70" s="465"/>
-      <c r="M70" s="545"/>
+      <c r="M70" s="465"/>
       <c r="N70" s="545"/>
-      <c r="O70" s="466"/>
+      <c r="O70" s="545"/>
       <c r="P70" s="466"/>
-      <c r="Q70" s="464" t="s">
-        <v>493</v>
-      </c>
-      <c r="R70" s="464" t="s">
+      <c r="Q70" s="466"/>
+      <c r="R70" s="487"/>
+      <c r="S70" s="464" t="s">
+        <v>493</v>
+      </c>
+      <c r="T70" s="464" t="s">
         <v>530</v>
       </c>
-      <c r="S70" s="465" t="s">
-        <v>493</v>
-      </c>
-      <c r="T70" s="465" t="s">
+      <c r="U70" s="465" t="s">
+        <v>493</v>
+      </c>
+      <c r="V70" s="465" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="467" t="s">
         <v>183</v>
       </c>
@@ -12744,28 +13009,30 @@
       <c r="J71" s="468" t="s">
         <v>394</v>
       </c>
-      <c r="K71" s="468" t="s">
+      <c r="K71" s="468"/>
+      <c r="L71" s="468" t="s">
         <v>300</v>
       </c>
-      <c r="L71" s="468"/>
-      <c r="M71" s="545"/>
+      <c r="M71" s="468"/>
       <c r="N71" s="545"/>
-      <c r="O71" s="469"/>
+      <c r="O71" s="545"/>
       <c r="P71" s="469"/>
-      <c r="Q71" s="467" t="s">
-        <v>493</v>
-      </c>
-      <c r="R71" s="467" t="s">
-        <v>493</v>
-      </c>
-      <c r="S71" s="468" t="s">
+      <c r="Q71" s="469"/>
+      <c r="R71" s="487"/>
+      <c r="S71" s="467" t="s">
+        <v>493</v>
+      </c>
+      <c r="T71" s="467" t="s">
+        <v>493</v>
+      </c>
+      <c r="U71" s="468" t="s">
         <v>516</v>
       </c>
-      <c r="T71" s="468" t="s">
+      <c r="V71" s="468" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="470" t="s">
         <v>493</v>
       </c>
@@ -12794,30 +13061,32 @@
       <c r="J72" s="471" t="s">
         <v>535</v>
       </c>
-      <c r="K72" s="471" t="s">
+      <c r="K72" s="471"/>
+      <c r="L72" s="471" t="s">
         <v>321</v>
       </c>
-      <c r="L72" s="471">
+      <c r="M72" s="471">
         <v>310905</v>
       </c>
-      <c r="M72" s="544"/>
       <c r="N72" s="544"/>
-      <c r="O72" s="472"/>
+      <c r="O72" s="544"/>
       <c r="P72" s="472"/>
-      <c r="Q72" s="470" t="s">
-        <v>493</v>
-      </c>
-      <c r="R72" s="470" t="s">
-        <v>493</v>
-      </c>
-      <c r="S72" s="471" t="s">
-        <v>493</v>
-      </c>
-      <c r="T72" s="471" t="s">
+      <c r="Q72" s="472"/>
+      <c r="R72" s="472"/>
+      <c r="S72" s="470" t="s">
+        <v>493</v>
+      </c>
+      <c r="T72" s="470" t="s">
+        <v>493</v>
+      </c>
+      <c r="U72" s="471" t="s">
+        <v>493</v>
+      </c>
+      <c r="V72" s="471" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="473" t="s">
         <v>183</v>
       </c>
@@ -12846,28 +13115,30 @@
       <c r="J73" s="474" t="s">
         <v>51</v>
       </c>
-      <c r="K73" s="474" t="s">
+      <c r="K73" s="474"/>
+      <c r="L73" s="474" t="s">
         <v>300</v>
       </c>
-      <c r="L73" s="474"/>
-      <c r="M73" s="545"/>
+      <c r="M73" s="474"/>
       <c r="N73" s="545"/>
-      <c r="O73" s="475"/>
+      <c r="O73" s="545"/>
       <c r="P73" s="475"/>
-      <c r="Q73" s="473" t="s">
-        <v>493</v>
-      </c>
-      <c r="R73" s="473" t="s">
+      <c r="Q73" s="475"/>
+      <c r="R73" s="487"/>
+      <c r="S73" s="473" t="s">
+        <v>493</v>
+      </c>
+      <c r="T73" s="473" t="s">
         <v>550</v>
       </c>
-      <c r="S73" s="474" t="s">
-        <v>493</v>
-      </c>
-      <c r="T73" s="474" t="s">
+      <c r="U73" s="474" t="s">
+        <v>493</v>
+      </c>
+      <c r="V73" s="474" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="476" t="s">
         <v>493</v>
       </c>
@@ -12896,30 +13167,32 @@
       <c r="J74" s="477" t="s">
         <v>553</v>
       </c>
-      <c r="K74" s="477" t="s">
+      <c r="K74" s="477"/>
+      <c r="L74" s="477" t="s">
         <v>321</v>
       </c>
-      <c r="L74" s="477">
+      <c r="M74" s="477">
         <v>311370</v>
       </c>
-      <c r="M74" s="545"/>
       <c r="N74" s="545"/>
-      <c r="O74" s="478"/>
+      <c r="O74" s="545"/>
       <c r="P74" s="478"/>
-      <c r="Q74" s="476" t="s">
-        <v>493</v>
-      </c>
-      <c r="R74" s="476" t="s">
-        <v>493</v>
-      </c>
-      <c r="S74" s="477" t="s">
-        <v>493</v>
-      </c>
-      <c r="T74" s="477" t="s">
+      <c r="Q74" s="478"/>
+      <c r="R74" s="487"/>
+      <c r="S74" s="476" t="s">
+        <v>493</v>
+      </c>
+      <c r="T74" s="476" t="s">
+        <v>493</v>
+      </c>
+      <c r="U74" s="477" t="s">
+        <v>493</v>
+      </c>
+      <c r="V74" s="477" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="479" t="s">
         <v>493</v>
       </c>
@@ -12948,28 +13221,30 @@
       <c r="J75" s="480" t="s">
         <v>557</v>
       </c>
-      <c r="K75" s="480" t="s">
+      <c r="K75" s="480"/>
+      <c r="L75" s="480" t="s">
         <v>393</v>
       </c>
-      <c r="L75" s="480"/>
-      <c r="M75" s="545"/>
+      <c r="M75" s="480"/>
       <c r="N75" s="545"/>
-      <c r="O75" s="481"/>
+      <c r="O75" s="545"/>
       <c r="P75" s="481"/>
-      <c r="Q75" s="479" t="s">
-        <v>493</v>
-      </c>
-      <c r="R75" s="479" t="s">
+      <c r="Q75" s="481"/>
+      <c r="R75" s="487"/>
+      <c r="S75" s="479" t="s">
+        <v>493</v>
+      </c>
+      <c r="T75" s="479" t="s">
         <v>567</v>
       </c>
-      <c r="S75" s="480" t="s">
+      <c r="U75" s="480" t="s">
         <v>516</v>
       </c>
-      <c r="T75" s="480" t="s">
+      <c r="V75" s="480" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="482" t="s">
         <v>493</v>
       </c>
@@ -12998,28 +13273,30 @@
       <c r="J76" s="483" t="s">
         <v>559</v>
       </c>
-      <c r="K76" s="483" t="s">
+      <c r="K76" s="483"/>
+      <c r="L76" s="483" t="s">
         <v>393</v>
       </c>
-      <c r="L76" s="483"/>
-      <c r="M76" s="545"/>
+      <c r="M76" s="483"/>
       <c r="N76" s="545"/>
-      <c r="O76" s="484"/>
+      <c r="O76" s="545"/>
       <c r="P76" s="484"/>
-      <c r="Q76" s="482" t="s">
-        <v>493</v>
-      </c>
-      <c r="R76" s="482" t="s">
-        <v>493</v>
-      </c>
-      <c r="S76" s="483" t="s">
-        <v>493</v>
-      </c>
-      <c r="T76" s="483" t="s">
+      <c r="Q76" s="484"/>
+      <c r="R76" s="487"/>
+      <c r="S76" s="482" t="s">
+        <v>493</v>
+      </c>
+      <c r="T76" s="482" t="s">
+        <v>493</v>
+      </c>
+      <c r="U76" s="483" t="s">
+        <v>493</v>
+      </c>
+      <c r="V76" s="483" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="485" t="s">
         <v>183</v>
       </c>
@@ -13048,30 +13325,32 @@
       <c r="J77" s="486" t="s">
         <v>325</v>
       </c>
-      <c r="K77" s="486" t="s">
+      <c r="K77" s="486"/>
+      <c r="L77" s="486" t="s">
         <v>321</v>
       </c>
-      <c r="L77" s="486"/>
-      <c r="M77" s="545"/>
+      <c r="M77" s="486"/>
       <c r="N77" s="545"/>
-      <c r="O77" s="487">
+      <c r="O77" s="545"/>
+      <c r="P77" s="487">
         <v>43164</v>
       </c>
-      <c r="P77" s="487"/>
-      <c r="Q77" s="485" t="s">
-        <v>493</v>
-      </c>
-      <c r="R77" s="485" t="s">
+      <c r="Q77" s="487"/>
+      <c r="R77" s="487"/>
+      <c r="S77" s="485" t="s">
+        <v>493</v>
+      </c>
+      <c r="T77" s="485" t="s">
         <v>566</v>
       </c>
-      <c r="S77" s="486" t="s">
-        <v>493</v>
-      </c>
-      <c r="T77" s="486" t="s">
+      <c r="U77" s="486" t="s">
+        <v>493</v>
+      </c>
+      <c r="V77" s="486" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="488" t="s">
         <v>236</v>
       </c>
@@ -13098,24 +13377,26 @@
       <c r="J78" s="489" t="s">
         <v>586</v>
       </c>
-      <c r="K78" s="489" t="s">
+      <c r="K78" s="489"/>
+      <c r="L78" s="489" t="s">
         <v>300</v>
       </c>
-      <c r="L78" s="489"/>
-      <c r="M78" s="546"/>
+      <c r="M78" s="489"/>
       <c r="N78" s="546"/>
-      <c r="O78" s="490">
+      <c r="O78" s="546"/>
+      <c r="P78" s="490">
         <v>43166</v>
       </c>
-      <c r="P78" s="490"/>
-      <c r="Q78" s="488"/>
-      <c r="R78" s="488"/>
-      <c r="S78" s="489"/>
-      <c r="T78" s="489" t="s">
+      <c r="Q78" s="490"/>
+      <c r="R78" s="490"/>
+      <c r="S78" s="488"/>
+      <c r="T78" s="488"/>
+      <c r="U78" s="489"/>
+      <c r="V78" s="489" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="491" t="s">
         <v>236</v>
       </c>
@@ -13142,26 +13423,28 @@
       <c r="J79" s="492" t="s">
         <v>372</v>
       </c>
-      <c r="K79" s="492" t="s">
+      <c r="K79" s="492"/>
+      <c r="L79" s="492" t="s">
         <v>316</v>
       </c>
-      <c r="L79" s="492"/>
-      <c r="M79" s="547"/>
+      <c r="M79" s="492"/>
       <c r="N79" s="547"/>
-      <c r="O79" s="493">
+      <c r="O79" s="547"/>
+      <c r="P79" s="493">
         <v>43166</v>
       </c>
-      <c r="P79" s="493"/>
-      <c r="Q79" s="491"/>
-      <c r="R79" s="491"/>
-      <c r="S79" s="492" t="s">
+      <c r="Q79" s="493"/>
+      <c r="R79" s="496"/>
+      <c r="S79" s="491"/>
+      <c r="T79" s="491"/>
+      <c r="U79" s="492" t="s">
         <v>516</v>
       </c>
-      <c r="T79" s="492" t="s">
+      <c r="V79" s="492" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="494" t="s">
         <v>183</v>
       </c>
@@ -13188,20 +13471,22 @@
       <c r="J80" s="495" t="s">
         <v>462</v>
       </c>
-      <c r="K80" s="495" t="s">
+      <c r="K80" s="495"/>
+      <c r="L80" s="495" t="s">
         <v>316</v>
       </c>
-      <c r="L80" s="495"/>
-      <c r="M80" s="547"/>
+      <c r="M80" s="495"/>
       <c r="N80" s="547"/>
-      <c r="O80" s="496">
+      <c r="O80" s="547"/>
+      <c r="P80" s="496">
         <v>43166</v>
       </c>
-      <c r="P80" s="496"/>
-      <c r="Q80" s="494"/>
-      <c r="R80" s="494"/>
-      <c r="S80" s="495"/>
-      <c r="T80" s="495" t="s">
+      <c r="Q80" s="496"/>
+      <c r="R80" s="496"/>
+      <c r="S80" s="494"/>
+      <c r="T80" s="494"/>
+      <c r="U80" s="495"/>
+      <c r="V80" s="495" t="s">
         <v>538</v>
       </c>
     </row>
@@ -13209,129 +13494,129 @@
   <autoFilter ref="H1:H80"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
+    <hyperlink ref="M2" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
     <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="L3" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
+    <hyperlink ref="M3" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
     <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="L4" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
+    <hyperlink ref="M4" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292733" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292733"/>
     <hyperlink ref="J5" r:id="rId7"/>
-    <hyperlink ref="L5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600"/>
+    <hyperlink ref="M5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294600" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294600"/>
     <hyperlink ref="J6" r:id="rId9"/>
-    <hyperlink ref="L6" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285917" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285917"/>
+    <hyperlink ref="M6" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285917" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285917"/>
     <hyperlink ref="J7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557"/>
+    <hyperlink ref="M7" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294557" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294557"/>
     <hyperlink ref="J8" r:id="rId13"/>
-    <hyperlink ref="L8" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285919" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285919"/>
+    <hyperlink ref="M8" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285919" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285919"/>
     <hyperlink ref="J9" r:id="rId15"/>
-    <hyperlink ref="L9" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
+    <hyperlink ref="M9" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
     <hyperlink ref="J10" r:id="rId17"/>
-    <hyperlink ref="L10" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=262607" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=262607"/>
+    <hyperlink ref="M10" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=262607" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=262607"/>
     <hyperlink ref="J11" r:id="rId19"/>
-    <hyperlink ref="L11" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838"/>
+    <hyperlink ref="M11" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298838"/>
     <hyperlink ref="J12" r:id="rId21"/>
-    <hyperlink ref="L12" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285884" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285884"/>
+    <hyperlink ref="M12" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285884" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285884"/>
     <hyperlink ref="J13" r:id="rId23"/>
-    <hyperlink ref="L13" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285896" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285896"/>
+    <hyperlink ref="M13" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285896" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=285896"/>
     <hyperlink ref="J14" r:id="rId25"/>
-    <hyperlink ref="L14" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=262615" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=262615"/>
+    <hyperlink ref="M14" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=262615" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=262615"/>
     <hyperlink ref="J15" r:id="rId27"/>
-    <hyperlink ref="L15" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426"/>
+    <hyperlink ref="M15" r:id="rId28" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294426" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294426"/>
     <hyperlink ref="J16" r:id="rId29"/>
-    <hyperlink ref="L16" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408"/>
+    <hyperlink ref="M16" r:id="rId30" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294408"/>
     <hyperlink ref="J17" r:id="rId31"/>
-    <hyperlink ref="L17" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573"/>
+    <hyperlink ref="M17" r:id="rId32" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294573" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294573"/>
     <hyperlink ref="J18" r:id="rId33"/>
-    <hyperlink ref="L18" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288251" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288251"/>
+    <hyperlink ref="M18" r:id="rId34" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288251" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288251"/>
     <hyperlink ref="J19" r:id="rId35"/>
-    <hyperlink ref="L19" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063"/>
+    <hyperlink ref="M19" r:id="rId36" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294063" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294063"/>
     <hyperlink ref="J20" r:id="rId37"/>
-    <hyperlink ref="L20" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288150" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288150"/>
+    <hyperlink ref="M20" r:id="rId38" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=288150" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=288150"/>
     <hyperlink ref="J21" r:id="rId39"/>
-    <hyperlink ref="L21" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694"/>
+    <hyperlink ref="M21" r:id="rId40" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292694" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292694"/>
     <hyperlink ref="J22" r:id="rId41"/>
-    <hyperlink ref="L22" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594"/>
+    <hyperlink ref="M22" r:id="rId42" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294594" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294594"/>
     <hyperlink ref="J23" r:id="rId43"/>
-    <hyperlink ref="L23" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568"/>
+    <hyperlink ref="M23" r:id="rId44" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294568"/>
     <hyperlink ref="J24" r:id="rId45"/>
-    <hyperlink ref="L24" r:id="rId46" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591"/>
+    <hyperlink ref="M24" r:id="rId46" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294591" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294591"/>
     <hyperlink ref="J25" r:id="rId47"/>
-    <hyperlink ref="L25" r:id="rId48" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710"/>
+    <hyperlink ref="M25" r:id="rId48" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301710" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301710"/>
     <hyperlink ref="J26" r:id="rId49"/>
-    <hyperlink ref="L26" r:id="rId50" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717"/>
+    <hyperlink ref="M26" r:id="rId50" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301717" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301717"/>
     <hyperlink ref="J27" r:id="rId51"/>
-    <hyperlink ref="L27" r:id="rId52" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750"/>
+    <hyperlink ref="M27" r:id="rId52" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301750" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301750"/>
     <hyperlink ref="J28" r:id="rId53"/>
     <hyperlink ref="J29" r:id="rId54"/>
-    <hyperlink ref="L29" r:id="rId55" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301756" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301756"/>
+    <hyperlink ref="M29" r:id="rId55" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301756" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301756"/>
     <hyperlink ref="J30" r:id="rId56"/>
     <hyperlink ref="J31" r:id="rId57"/>
-    <hyperlink ref="L31" r:id="rId58" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
+    <hyperlink ref="M31" r:id="rId58" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
     <hyperlink ref="J32" r:id="rId59"/>
     <hyperlink ref="J33" r:id="rId60"/>
     <hyperlink ref="J34" r:id="rId61"/>
     <hyperlink ref="J35" r:id="rId62"/>
     <hyperlink ref="J36" r:id="rId63"/>
-    <hyperlink ref="L36" r:id="rId64" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302780" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302780"/>
+    <hyperlink ref="M36" r:id="rId64" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302780" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302780"/>
     <hyperlink ref="J37" r:id="rId65"/>
-    <hyperlink ref="L37" r:id="rId66" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302796" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302796"/>
+    <hyperlink ref="M37" r:id="rId66" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302796" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302796"/>
     <hyperlink ref="J38" r:id="rId67"/>
-    <hyperlink ref="L38" r:id="rId68" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302833" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302833"/>
+    <hyperlink ref="M38" r:id="rId68" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302833" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302833"/>
     <hyperlink ref="J39" r:id="rId69"/>
-    <hyperlink ref="L39" r:id="rId70" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302838"/>
+    <hyperlink ref="M39" r:id="rId70" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302838" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302838"/>
     <hyperlink ref="J40" r:id="rId71"/>
-    <hyperlink ref="L40" r:id="rId72" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302845" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302845"/>
+    <hyperlink ref="M40" r:id="rId72" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302845" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302845"/>
     <hyperlink ref="J41" r:id="rId73"/>
-    <hyperlink ref="L41" r:id="rId74" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395"/>
+    <hyperlink ref="M41" r:id="rId74" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307395" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307395"/>
     <hyperlink ref="J42" r:id="rId75"/>
-    <hyperlink ref="L42" r:id="rId76" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396"/>
+    <hyperlink ref="M42" r:id="rId76" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307396" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307396"/>
     <hyperlink ref="J43" r:id="rId77"/>
-    <hyperlink ref="L43" r:id="rId78" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398"/>
+    <hyperlink ref="M43" r:id="rId78" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307398" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307398"/>
     <hyperlink ref="J44" r:id="rId79"/>
-    <hyperlink ref="L44" r:id="rId80" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400"/>
+    <hyperlink ref="M44" r:id="rId80" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307400" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307400"/>
     <hyperlink ref="J45" r:id="rId81"/>
-    <hyperlink ref="L45" r:id="rId82" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402"/>
+    <hyperlink ref="M45" r:id="rId82" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307402" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307402"/>
     <hyperlink ref="J46" r:id="rId83"/>
-    <hyperlink ref="L46" r:id="rId84" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405"/>
+    <hyperlink ref="M46" r:id="rId84" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307405" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307405"/>
     <hyperlink ref="J47" r:id="rId85"/>
-    <hyperlink ref="L47" r:id="rId86" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407"/>
+    <hyperlink ref="M47" r:id="rId86" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307407" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307407"/>
     <hyperlink ref="J48" r:id="rId87"/>
-    <hyperlink ref="L48" r:id="rId88" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408"/>
+    <hyperlink ref="M48" r:id="rId88" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307408" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307408"/>
     <hyperlink ref="J49" r:id="rId89"/>
-    <hyperlink ref="L49" r:id="rId90" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
+    <hyperlink ref="M49" r:id="rId90" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
     <hyperlink ref="J50" r:id="rId91"/>
-    <hyperlink ref="L50" r:id="rId92" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535"/>
+    <hyperlink ref="M50" r:id="rId92" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307535" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307535"/>
     <hyperlink ref="J51" r:id="rId93"/>
     <hyperlink ref="J52" r:id="rId94"/>
-    <hyperlink ref="L52" r:id="rId95" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542"/>
+    <hyperlink ref="M52" r:id="rId95" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307542" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=307542"/>
     <hyperlink ref="J53" r:id="rId96"/>
     <hyperlink ref="J54" r:id="rId97"/>
     <hyperlink ref="J55" r:id="rId98"/>
     <hyperlink ref="J56" r:id="rId99"/>
-    <hyperlink ref="L56" r:id="rId100" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=309193" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=309193"/>
+    <hyperlink ref="M56" r:id="rId100" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=309193" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=309193"/>
     <hyperlink ref="J57" r:id="rId101"/>
     <hyperlink ref="J58" r:id="rId102"/>
     <hyperlink ref="J59" r:id="rId103"/>
     <hyperlink ref="J60" r:id="rId104"/>
     <hyperlink ref="J61" r:id="rId105"/>
     <hyperlink ref="J62" r:id="rId106"/>
-    <hyperlink ref="L62" r:id="rId107" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310773" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310773"/>
+    <hyperlink ref="M62" r:id="rId107" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310773" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310773"/>
     <hyperlink ref="J63" r:id="rId108"/>
-    <hyperlink ref="L63" r:id="rId109" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311661" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311661"/>
+    <hyperlink ref="M63" r:id="rId109" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311661" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311661"/>
     <hyperlink ref="J64" r:id="rId110"/>
     <hyperlink ref="J65" r:id="rId111"/>
-    <hyperlink ref="L65" r:id="rId112" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310726" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310726"/>
+    <hyperlink ref="M65" r:id="rId112" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310726" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310726"/>
     <hyperlink ref="J66" r:id="rId113"/>
     <hyperlink ref="J67" r:id="rId114"/>
     <hyperlink ref="J68" r:id="rId115"/>
     <hyperlink ref="J69" r:id="rId116"/>
-    <hyperlink ref="L69" r:id="rId117" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625"/>
+    <hyperlink ref="M69" r:id="rId117" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292625" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=292625"/>
     <hyperlink ref="J70" r:id="rId118"/>
     <hyperlink ref="J71" r:id="rId119"/>
     <hyperlink ref="J72" r:id="rId120"/>
-    <hyperlink ref="L72" r:id="rId121" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310905" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310905"/>
+    <hyperlink ref="M72" r:id="rId121" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310905" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310905"/>
     <hyperlink ref="J73" r:id="rId122"/>
     <hyperlink ref="J74" r:id="rId123"/>
-    <hyperlink ref="L74" r:id="rId124" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311370" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311370"/>
+    <hyperlink ref="M74" r:id="rId124" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311370" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311370"/>
     <hyperlink ref="J75" r:id="rId125"/>
     <hyperlink ref="J76" r:id="rId126"/>
     <hyperlink ref="J77" r:id="rId127"/>
